--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,93 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Germany 3. Liga</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Hallescher FC</t>
+  </si>
+  <si>
+    <t>Viktoria Köln</t>
+  </si>
+  <si>
+    <t>VfB Lübeck</t>
+  </si>
+  <si>
+    <t>1860 München</t>
+  </si>
+  <si>
+    <t>Preußen Münster</t>
+  </si>
+  <si>
+    <t>Jahn Regensburg</t>
+  </si>
+  <si>
+    <t>Dynamo Dresden</t>
+  </si>
+  <si>
+    <t>Rot-Weiss Essen</t>
+  </si>
+  <si>
+    <t>Verl</t>
+  </si>
+  <si>
+    <t>Sandhausen</t>
+  </si>
+  <si>
+    <t>Waldhof Mannheim</t>
+  </si>
+  <si>
+    <t>Borussia Dortmund II</t>
+  </si>
+  <si>
+    <t>Unterhaching</t>
+  </si>
+  <si>
+    <t>Arminia Bielefeld</t>
+  </si>
+  <si>
+    <t>['2', '39']</t>
+  </si>
+  <si>
+    <t>['35', '58', '72']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['12', '55']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['14', '36', '64']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +342,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +839,1343 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6792808</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45142.59375</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>2.8</v>
+      </c>
+      <c r="U2">
+        <v>2.1</v>
+      </c>
+      <c r="V2">
+        <v>3.4</v>
+      </c>
+      <c r="W2">
+        <v>1.36</v>
+      </c>
+      <c r="X2">
+        <v>2.87</v>
+      </c>
+      <c r="Y2">
+        <v>2.6</v>
+      </c>
+      <c r="Z2">
+        <v>1.43</v>
+      </c>
+      <c r="AA2">
+        <v>6.5</v>
+      </c>
+      <c r="AB2">
+        <v>1.09</v>
+      </c>
+      <c r="AC2">
+        <v>1.99</v>
+      </c>
+      <c r="AD2">
+        <v>3.3</v>
+      </c>
+      <c r="AE2">
+        <v>3.15</v>
+      </c>
+      <c r="AF2">
+        <v>1.05</v>
+      </c>
+      <c r="AG2">
+        <v>9</v>
+      </c>
+      <c r="AH2">
+        <v>1.25</v>
+      </c>
+      <c r="AI2">
+        <v>3.6</v>
+      </c>
+      <c r="AJ2">
+        <v>1.83</v>
+      </c>
+      <c r="AK2">
+        <v>2.03</v>
+      </c>
+      <c r="AL2">
+        <v>1.63</v>
+      </c>
+      <c r="AM2">
+        <v>2.1</v>
+      </c>
+      <c r="AN2">
+        <v>1.38</v>
+      </c>
+      <c r="AO2">
+        <v>1.3</v>
+      </c>
+      <c r="AP2">
+        <v>1.6</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>3</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1.68</v>
+      </c>
+      <c r="AY2">
+        <v>8.9</v>
+      </c>
+      <c r="AZ2">
+        <v>2.51</v>
+      </c>
+      <c r="BA2">
+        <v>1.26</v>
+      </c>
+      <c r="BB2">
+        <v>1.5</v>
+      </c>
+      <c r="BC2">
+        <v>1.98</v>
+      </c>
+      <c r="BD2">
+        <v>2.5</v>
+      </c>
+      <c r="BE2">
+        <v>3.5</v>
+      </c>
+      <c r="BF2">
+        <v>2</v>
+      </c>
+      <c r="BG2">
+        <v>5</v>
+      </c>
+      <c r="BH2">
+        <v>4</v>
+      </c>
+      <c r="BI2">
+        <v>12</v>
+      </c>
+      <c r="BJ2">
+        <v>6</v>
+      </c>
+      <c r="BK2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6792802</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45143.375</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>2.65</v>
+      </c>
+      <c r="U3">
+        <v>2.3</v>
+      </c>
+      <c r="V3">
+        <v>3.3</v>
+      </c>
+      <c r="W3">
+        <v>1.3</v>
+      </c>
+      <c r="X3">
+        <v>3.25</v>
+      </c>
+      <c r="Y3">
+        <v>2.39</v>
+      </c>
+      <c r="Z3">
+        <v>1.52</v>
+      </c>
+      <c r="AA3">
+        <v>5.45</v>
+      </c>
+      <c r="AB3">
+        <v>1.12</v>
+      </c>
+      <c r="AC3">
+        <v>2.14</v>
+      </c>
+      <c r="AD3">
+        <v>3.7</v>
+      </c>
+      <c r="AE3">
+        <v>3.08</v>
+      </c>
+      <c r="AF3">
+        <v>1.03</v>
+      </c>
+      <c r="AG3">
+        <v>11</v>
+      </c>
+      <c r="AH3">
+        <v>1.18</v>
+      </c>
+      <c r="AI3">
+        <v>4.5</v>
+      </c>
+      <c r="AJ3">
+        <v>1.53</v>
+      </c>
+      <c r="AK3">
+        <v>2.2</v>
+      </c>
+      <c r="AL3">
+        <v>1.52</v>
+      </c>
+      <c r="AM3">
+        <v>2.45</v>
+      </c>
+      <c r="AN3">
+        <v>1.33</v>
+      </c>
+      <c r="AO3">
+        <v>1.22</v>
+      </c>
+      <c r="AP3">
+        <v>1.68</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1.75</v>
+      </c>
+      <c r="AY3">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ3">
+        <v>2.51</v>
+      </c>
+      <c r="BA3">
+        <v>1.23</v>
+      </c>
+      <c r="BB3">
+        <v>1.44</v>
+      </c>
+      <c r="BC3">
+        <v>1.8</v>
+      </c>
+      <c r="BD3">
+        <v>2.35</v>
+      </c>
+      <c r="BE3">
+        <v>3.25</v>
+      </c>
+      <c r="BF3">
+        <v>4</v>
+      </c>
+      <c r="BG3">
+        <v>6</v>
+      </c>
+      <c r="BH3">
+        <v>5</v>
+      </c>
+      <c r="BI3">
+        <v>2</v>
+      </c>
+      <c r="BJ3">
+        <v>9</v>
+      </c>
+      <c r="BK3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6792803</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45143.375</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <v>3.75</v>
+      </c>
+      <c r="U4">
+        <v>2.2</v>
+      </c>
+      <c r="V4">
+        <v>2.55</v>
+      </c>
+      <c r="W4">
+        <v>1.33</v>
+      </c>
+      <c r="X4">
+        <v>3.05</v>
+      </c>
+      <c r="Y4">
+        <v>2.5</v>
+      </c>
+      <c r="Z4">
+        <v>1.47</v>
+      </c>
+      <c r="AA4">
+        <v>5.95</v>
+      </c>
+      <c r="AB4">
+        <v>1.1</v>
+      </c>
+      <c r="AC4">
+        <v>3.4</v>
+      </c>
+      <c r="AD4">
+        <v>3.7</v>
+      </c>
+      <c r="AE4">
+        <v>1.85</v>
+      </c>
+      <c r="AF4">
+        <v>1.04</v>
+      </c>
+      <c r="AG4">
+        <v>10</v>
+      </c>
+      <c r="AH4">
+        <v>1.22</v>
+      </c>
+      <c r="AI4">
+        <v>4</v>
+      </c>
+      <c r="AJ4">
+        <v>1.61</v>
+      </c>
+      <c r="AK4">
+        <v>2.05</v>
+      </c>
+      <c r="AL4">
+        <v>1.6</v>
+      </c>
+      <c r="AM4">
+        <v>2.25</v>
+      </c>
+      <c r="AN4">
+        <v>1.8</v>
+      </c>
+      <c r="AO4">
+        <v>1.22</v>
+      </c>
+      <c r="AP4">
+        <v>1.3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>2.63</v>
+      </c>
+      <c r="AY4">
+        <v>7.5</v>
+      </c>
+      <c r="AZ4">
+        <v>1.73</v>
+      </c>
+      <c r="BA4">
+        <v>1.23</v>
+      </c>
+      <c r="BB4">
+        <v>1.44</v>
+      </c>
+      <c r="BC4">
+        <v>1.88</v>
+      </c>
+      <c r="BD4">
+        <v>2.35</v>
+      </c>
+      <c r="BE4">
+        <v>3.25</v>
+      </c>
+      <c r="BF4">
+        <v>2</v>
+      </c>
+      <c r="BG4">
+        <v>5</v>
+      </c>
+      <c r="BH4">
+        <v>5</v>
+      </c>
+      <c r="BI4">
+        <v>6</v>
+      </c>
+      <c r="BJ4">
+        <v>7</v>
+      </c>
+      <c r="BK4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6792806</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45143.375</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>14</v>
+      </c>
+      <c r="T5">
+        <v>2.85</v>
+      </c>
+      <c r="U5">
+        <v>2.2</v>
+      </c>
+      <c r="V5">
+        <v>3.25</v>
+      </c>
+      <c r="W5">
+        <v>1.33</v>
+      </c>
+      <c r="X5">
+        <v>3.05</v>
+      </c>
+      <c r="Y5">
+        <v>2.45</v>
+      </c>
+      <c r="Z5">
+        <v>1.49</v>
+      </c>
+      <c r="AA5">
+        <v>5.45</v>
+      </c>
+      <c r="AB5">
+        <v>1.12</v>
+      </c>
+      <c r="AC5">
+        <v>2.26</v>
+      </c>
+      <c r="AD5">
+        <v>3.58</v>
+      </c>
+      <c r="AE5">
+        <v>3.1</v>
+      </c>
+      <c r="AF5">
+        <v>1.04</v>
+      </c>
+      <c r="AG5">
+        <v>10</v>
+      </c>
+      <c r="AH5">
+        <v>1.22</v>
+      </c>
+      <c r="AI5">
+        <v>4</v>
+      </c>
+      <c r="AJ5">
+        <v>1.6</v>
+      </c>
+      <c r="AK5">
+        <v>2.15</v>
+      </c>
+      <c r="AL5">
+        <v>1.57</v>
+      </c>
+      <c r="AM5">
+        <v>2.35</v>
+      </c>
+      <c r="AN5">
+        <v>1.42</v>
+      </c>
+      <c r="AO5">
+        <v>1.22</v>
+      </c>
+      <c r="AP5">
+        <v>1.57</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.84</v>
+      </c>
+      <c r="AY5">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ5">
+        <v>2.35</v>
+      </c>
+      <c r="BA5">
+        <v>1.2</v>
+      </c>
+      <c r="BB5">
+        <v>1.39</v>
+      </c>
+      <c r="BC5">
+        <v>1.7</v>
+      </c>
+      <c r="BD5">
+        <v>2.2</v>
+      </c>
+      <c r="BE5">
+        <v>3</v>
+      </c>
+      <c r="BF5">
+        <v>5</v>
+      </c>
+      <c r="BG5">
+        <v>4</v>
+      </c>
+      <c r="BH5">
+        <v>3</v>
+      </c>
+      <c r="BI5">
+        <v>7</v>
+      </c>
+      <c r="BJ5">
+        <v>8</v>
+      </c>
+      <c r="BK5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6792807</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45143.375</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>2.35</v>
+      </c>
+      <c r="U6">
+        <v>2.2</v>
+      </c>
+      <c r="V6">
+        <v>4.33</v>
+      </c>
+      <c r="W6">
+        <v>1.33</v>
+      </c>
+      <c r="X6">
+        <v>3.05</v>
+      </c>
+      <c r="Y6">
+        <v>2.45</v>
+      </c>
+      <c r="Z6">
+        <v>1.49</v>
+      </c>
+      <c r="AA6">
+        <v>5.45</v>
+      </c>
+      <c r="AB6">
+        <v>1.12</v>
+      </c>
+      <c r="AC6">
+        <v>2.05</v>
+      </c>
+      <c r="AD6">
+        <v>3.72</v>
+      </c>
+      <c r="AE6">
+        <v>3.48</v>
+      </c>
+      <c r="AF6">
+        <v>1.04</v>
+      </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
+      <c r="AH6">
+        <v>1.2</v>
+      </c>
+      <c r="AI6">
+        <v>4.2</v>
+      </c>
+      <c r="AJ6">
+        <v>1.61</v>
+      </c>
+      <c r="AK6">
+        <v>2.05</v>
+      </c>
+      <c r="AL6">
+        <v>1.62</v>
+      </c>
+      <c r="AM6">
+        <v>2.2</v>
+      </c>
+      <c r="AN6">
+        <v>1.17</v>
+      </c>
+      <c r="AO6">
+        <v>1.22</v>
+      </c>
+      <c r="AP6">
+        <v>1.95</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>1.51</v>
+      </c>
+      <c r="AY6">
+        <v>9.1</v>
+      </c>
+      <c r="AZ6">
+        <v>3.14</v>
+      </c>
+      <c r="BA6">
+        <v>1.3</v>
+      </c>
+      <c r="BB6">
+        <v>1.55</v>
+      </c>
+      <c r="BC6">
+        <v>1.98</v>
+      </c>
+      <c r="BD6">
+        <v>2.65</v>
+      </c>
+      <c r="BE6">
+        <v>3.8</v>
+      </c>
+      <c r="BF6">
+        <v>6</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>6</v>
+      </c>
+      <c r="BI6">
+        <v>3</v>
+      </c>
+      <c r="BJ6">
+        <v>12</v>
+      </c>
+      <c r="BK6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6792809</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45143.375</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>2.15</v>
+      </c>
+      <c r="U7">
+        <v>2.3</v>
+      </c>
+      <c r="V7">
+        <v>4.75</v>
+      </c>
+      <c r="W7">
+        <v>1.3</v>
+      </c>
+      <c r="X7">
+        <v>3.25</v>
+      </c>
+      <c r="Y7">
+        <v>2.39</v>
+      </c>
+      <c r="Z7">
+        <v>1.52</v>
+      </c>
+      <c r="AA7">
+        <v>5.45</v>
+      </c>
+      <c r="AB7">
+        <v>1.12</v>
+      </c>
+      <c r="AC7">
+        <v>1.6</v>
+      </c>
+      <c r="AD7">
+        <v>3.7</v>
+      </c>
+      <c r="AE7">
+        <v>4.6</v>
+      </c>
+      <c r="AF7">
+        <v>1.03</v>
+      </c>
+      <c r="AG7">
+        <v>12</v>
+      </c>
+      <c r="AH7">
+        <v>1.18</v>
+      </c>
+      <c r="AI7">
+        <v>4.5</v>
+      </c>
+      <c r="AJ7">
+        <v>1.6</v>
+      </c>
+      <c r="AK7">
+        <v>2.15</v>
+      </c>
+      <c r="AL7">
+        <v>1.65</v>
+      </c>
+      <c r="AM7">
+        <v>2.15</v>
+      </c>
+      <c r="AN7">
+        <v>1.12</v>
+      </c>
+      <c r="AO7">
+        <v>1.18</v>
+      </c>
+      <c r="AP7">
+        <v>2.2</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1.55</v>
+      </c>
+      <c r="AY7">
+        <v>7</v>
+      </c>
+      <c r="AZ7">
+        <v>3.2</v>
+      </c>
+      <c r="BA7">
+        <v>1.43</v>
+      </c>
+      <c r="BB7">
+        <v>1.8</v>
+      </c>
+      <c r="BC7">
+        <v>2.4</v>
+      </c>
+      <c r="BD7">
+        <v>3.4</v>
+      </c>
+      <c r="BE7">
+        <v>4.25</v>
+      </c>
+      <c r="BF7">
+        <v>9</v>
+      </c>
+      <c r="BG7">
+        <v>2</v>
+      </c>
+      <c r="BH7">
+        <v>7</v>
+      </c>
+      <c r="BI7">
+        <v>6</v>
+      </c>
+      <c r="BJ7">
+        <v>16</v>
+      </c>
+      <c r="BK7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6792804</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45143.46875</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>11</v>
+      </c>
+      <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8">
+        <v>2.3</v>
+      </c>
+      <c r="V8">
+        <v>3.6</v>
+      </c>
+      <c r="W8">
+        <v>1.3</v>
+      </c>
+      <c r="X8">
+        <v>3.25</v>
+      </c>
+      <c r="Y8">
+        <v>2.34</v>
+      </c>
+      <c r="Z8">
+        <v>1.54</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <v>1.14</v>
+      </c>
+      <c r="AC8">
+        <v>1.87</v>
+      </c>
+      <c r="AD8">
+        <v>3.75</v>
+      </c>
+      <c r="AE8">
+        <v>3.4</v>
+      </c>
+      <c r="AF8">
+        <v>1.03</v>
+      </c>
+      <c r="AG8">
+        <v>11</v>
+      </c>
+      <c r="AH8">
+        <v>1.18</v>
+      </c>
+      <c r="AI8">
+        <v>4.5</v>
+      </c>
+      <c r="AJ8">
+        <v>1.56</v>
+      </c>
+      <c r="AK8">
+        <v>2.19</v>
+      </c>
+      <c r="AL8">
+        <v>1.52</v>
+      </c>
+      <c r="AM8">
+        <v>2.45</v>
+      </c>
+      <c r="AN8">
+        <v>1.3</v>
+      </c>
+      <c r="AO8">
+        <v>1.2</v>
+      </c>
+      <c r="AP8">
+        <v>1.78</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1.83</v>
+      </c>
+      <c r="AY8">
+        <v>6.5</v>
+      </c>
+      <c r="AZ8">
+        <v>2.5</v>
+      </c>
+      <c r="BA8">
+        <v>1.32</v>
+      </c>
+      <c r="BB8">
+        <v>1.6</v>
+      </c>
+      <c r="BC8">
+        <v>2.05</v>
+      </c>
+      <c r="BD8">
+        <v>2.75</v>
+      </c>
+      <c r="BE8">
+        <v>4</v>
+      </c>
+      <c r="BF8">
+        <v>5</v>
+      </c>
+      <c r="BG8">
+        <v>5</v>
+      </c>
+      <c r="BH8">
+        <v>6</v>
+      </c>
+      <c r="BI8">
+        <v>3</v>
+      </c>
+      <c r="BJ8">
+        <v>11</v>
+      </c>
+      <c r="BK8">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,6 +232,15 @@
     <t>Dynamo Dresden</t>
   </si>
   <si>
+    <t>Ulm</t>
+  </si>
+  <si>
+    <t>Freiburg II</t>
+  </si>
+  <si>
+    <t>Erzgebirge Aue</t>
+  </si>
+  <si>
     <t>Rot-Weiss Essen</t>
   </si>
   <si>
@@ -253,6 +262,15 @@
     <t>Arminia Bielefeld</t>
   </si>
   <si>
+    <t>Saarbrucken</t>
+  </si>
+  <si>
+    <t>MSV Duisburg</t>
+  </si>
+  <si>
+    <t>Ingolstadt</t>
+  </si>
+  <si>
     <t>['2', '39']</t>
   </si>
   <si>
@@ -271,6 +289,15 @@
     <t>['14', '36', '64']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -281,6 +308,12 @@
   </si>
   <si>
     <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['28']</t>
   </si>
 </sst>
 </file>
@@ -642,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,7 +895,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -883,10 +916,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1012,7 +1045,7 @@
         <v>3.5</v>
       </c>
       <c r="BF2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG2">
         <v>5</v>
@@ -1021,13 +1054,13 @@
         <v>4</v>
       </c>
       <c r="BI2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BJ2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:63">
@@ -1053,7 +1086,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1074,19 +1107,19 @@
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T3">
         <v>2.65</v>
@@ -1244,7 +1277,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1265,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q4">
         <v>4</v>
       </c>
       <c r="R4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T4">
         <v>3.75</v>
@@ -1435,7 +1468,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1456,10 +1489,10 @@
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1626,7 +1659,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1647,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T6">
         <v>2.35</v>
@@ -1817,7 +1850,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1838,10 +1871,10 @@
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2008,7 +2041,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -2029,10 +2062,10 @@
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2158,21 +2191,594 @@
         <v>4</v>
       </c>
       <c r="BF8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BI8">
         <v>3</v>
       </c>
       <c r="BJ8">
+        <v>10</v>
+      </c>
+      <c r="BK8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6792805</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45144.35416666666</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>3.6</v>
+      </c>
+      <c r="U9">
+        <v>2.2</v>
+      </c>
+      <c r="V9">
+        <v>2.65</v>
+      </c>
+      <c r="W9">
+        <v>1.35</v>
+      </c>
+      <c r="X9">
+        <v>2.95</v>
+      </c>
+      <c r="Y9">
+        <v>2.6</v>
+      </c>
+      <c r="Z9">
+        <v>1.44</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>1.1</v>
+      </c>
+      <c r="AC9">
+        <v>3.45</v>
+      </c>
+      <c r="AD9">
+        <v>3.5</v>
+      </c>
+      <c r="AE9">
+        <v>1.91</v>
+      </c>
+      <c r="AF9">
+        <v>1.01</v>
+      </c>
+      <c r="AG9">
+        <v>9.9</v>
+      </c>
+      <c r="AH9">
+        <v>1.25</v>
+      </c>
+      <c r="AI9">
+        <v>3.75</v>
+      </c>
+      <c r="AJ9">
+        <v>1.67</v>
+      </c>
+      <c r="AK9">
+        <v>2.05</v>
+      </c>
+      <c r="AL9">
+        <v>1.63</v>
+      </c>
+      <c r="AM9">
+        <v>2.2</v>
+      </c>
+      <c r="AN9">
+        <v>1.72</v>
+      </c>
+      <c r="AO9">
+        <v>1.22</v>
+      </c>
+      <c r="AP9">
+        <v>1.33</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>2.37</v>
+      </c>
+      <c r="AY9">
+        <v>7.5</v>
+      </c>
+      <c r="AZ9">
+        <v>1.87</v>
+      </c>
+      <c r="BA9">
+        <v>1.34</v>
+      </c>
+      <c r="BB9">
+        <v>1.63</v>
+      </c>
+      <c r="BC9">
+        <v>2.1</v>
+      </c>
+      <c r="BD9">
+        <v>2.87</v>
+      </c>
+      <c r="BE9">
+        <v>4.1</v>
+      </c>
+      <c r="BF9">
+        <v>4</v>
+      </c>
+      <c r="BG9">
+        <v>5</v>
+      </c>
+      <c r="BH9">
+        <v>5</v>
+      </c>
+      <c r="BI9">
+        <v>2</v>
+      </c>
+      <c r="BJ9">
+        <v>9</v>
+      </c>
+      <c r="BK9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6792811</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45144.47916666666</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>2.6</v>
+      </c>
+      <c r="U10">
+        <v>2.3</v>
+      </c>
+      <c r="V10">
+        <v>3.75</v>
+      </c>
+      <c r="W10">
+        <v>1.33</v>
+      </c>
+      <c r="X10">
+        <v>3.25</v>
+      </c>
+      <c r="Y10">
+        <v>2.5</v>
+      </c>
+      <c r="Z10">
+        <v>1.5</v>
+      </c>
+      <c r="AA10">
+        <v>6.5</v>
+      </c>
+      <c r="AB10">
+        <v>1.11</v>
+      </c>
+      <c r="AC10">
+        <v>2.12</v>
+      </c>
+      <c r="AD10">
+        <v>3.4</v>
+      </c>
+      <c r="AE10">
+        <v>3.1</v>
+      </c>
+      <c r="AF10">
+        <v>1.04</v>
+      </c>
+      <c r="AG10">
+        <v>10</v>
+      </c>
+      <c r="AH10">
+        <v>1.22</v>
+      </c>
+      <c r="AI10">
+        <v>4</v>
+      </c>
+      <c r="AJ10">
+        <v>1.73</v>
+      </c>
+      <c r="AK10">
+        <v>2.05</v>
+      </c>
+      <c r="AL10">
+        <v>1.62</v>
+      </c>
+      <c r="AM10">
+        <v>2.2</v>
+      </c>
+      <c r="AN10">
+        <v>1.31</v>
+      </c>
+      <c r="AO10">
+        <v>1.28</v>
+      </c>
+      <c r="AP10">
+        <v>1.73</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>1.4</v>
+      </c>
+      <c r="AY10">
+        <v>9.9</v>
+      </c>
+      <c r="AZ10">
+        <v>3.44</v>
+      </c>
+      <c r="BA10">
+        <v>1.16</v>
+      </c>
+      <c r="BB10">
+        <v>1.33</v>
+      </c>
+      <c r="BC10">
+        <v>1.6</v>
+      </c>
+      <c r="BD10">
+        <v>2.05</v>
+      </c>
+      <c r="BE10">
+        <v>2.7</v>
+      </c>
+      <c r="BF10">
+        <v>3</v>
+      </c>
+      <c r="BG10">
+        <v>8</v>
+      </c>
+      <c r="BH10">
+        <v>6</v>
+      </c>
+      <c r="BI10">
+        <v>3</v>
+      </c>
+      <c r="BJ10">
+        <v>9</v>
+      </c>
+      <c r="BK10">
         <v>11</v>
       </c>
-      <c r="BK8">
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6792810</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45144.60416666666</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>12</v>
+      </c>
+      <c r="T11">
+        <v>3.25</v>
+      </c>
+      <c r="U11">
+        <v>2.25</v>
+      </c>
+      <c r="V11">
+        <v>3.1</v>
+      </c>
+      <c r="W11">
+        <v>1.33</v>
+      </c>
+      <c r="X11">
+        <v>3.25</v>
+      </c>
+      <c r="Y11">
+        <v>2.63</v>
+      </c>
+      <c r="Z11">
+        <v>1.44</v>
+      </c>
+      <c r="AA11">
+        <v>7</v>
+      </c>
+      <c r="AB11">
+        <v>1.1</v>
+      </c>
+      <c r="AC11">
+        <v>2.6</v>
+      </c>
+      <c r="AD11">
+        <v>3.4</v>
+      </c>
+      <c r="AE11">
+        <v>2.45</v>
+      </c>
+      <c r="AF11">
+        <v>1.04</v>
+      </c>
+      <c r="AG11">
+        <v>10</v>
+      </c>
+      <c r="AH11">
+        <v>1.22</v>
+      </c>
+      <c r="AI11">
+        <v>4</v>
+      </c>
+      <c r="AJ11">
+        <v>1.61</v>
+      </c>
+      <c r="AK11">
+        <v>2.25</v>
+      </c>
+      <c r="AL11">
+        <v>1.62</v>
+      </c>
+      <c r="AM11">
+        <v>2.2</v>
+      </c>
+      <c r="AN11">
+        <v>1.52</v>
+      </c>
+      <c r="AO11">
+        <v>1.25</v>
+      </c>
+      <c r="AP11">
+        <v>1.45</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1.81</v>
+      </c>
+      <c r="AY11">
+        <v>9.4</v>
+      </c>
+      <c r="AZ11">
+        <v>2.24</v>
+      </c>
+      <c r="BA11">
+        <v>1.14</v>
+      </c>
+      <c r="BB11">
+        <v>1.25</v>
+      </c>
+      <c r="BC11">
+        <v>1.46</v>
+      </c>
+      <c r="BD11">
+        <v>1.8</v>
+      </c>
+      <c r="BE11">
+        <v>2.3</v>
+      </c>
+      <c r="BF11">
+        <v>6</v>
+      </c>
+      <c r="BG11">
+        <v>5</v>
+      </c>
+      <c r="BH11">
+        <v>3</v>
+      </c>
+      <c r="BI11">
+        <v>3</v>
+      </c>
+      <c r="BJ11">
+        <v>9</v>
+      </c>
+      <c r="BK11">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,36 +241,36 @@
     <t>Erzgebirge Aue</t>
   </si>
   <si>
+    <t>Sandhausen</t>
+  </si>
+  <si>
+    <t>Unterhaching</t>
+  </si>
+  <si>
+    <t>Arminia Bielefeld</t>
+  </si>
+  <si>
+    <t>MSV Duisburg</t>
+  </si>
+  <si>
+    <t>Saarbrucken</t>
+  </si>
+  <si>
+    <t>Ingolstadt</t>
+  </si>
+  <si>
     <t>Rot-Weiss Essen</t>
   </si>
   <si>
     <t>Verl</t>
   </si>
   <si>
-    <t>Sandhausen</t>
-  </si>
-  <si>
     <t>Waldhof Mannheim</t>
   </si>
   <si>
     <t>Borussia Dortmund II</t>
   </si>
   <si>
-    <t>Unterhaching</t>
-  </si>
-  <si>
-    <t>Arminia Bielefeld</t>
-  </si>
-  <si>
-    <t>Saarbrucken</t>
-  </si>
-  <si>
-    <t>MSV Duisburg</t>
-  </si>
-  <si>
-    <t>Ingolstadt</t>
-  </si>
-  <si>
     <t>['2', '39']</t>
   </si>
   <si>
@@ -298,6 +298,18 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['40', '79', '90+6']</t>
+  </si>
+  <si>
+    <t>['19', '45', '53', '60']</t>
+  </si>
+  <si>
+    <t>['15', '55', '65', '87']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -314,6 +326,15 @@
   </si>
   <si>
     <t>['28']</t>
+  </si>
+  <si>
+    <t>['11', '45+5']</t>
+  </si>
+  <si>
+    <t>['32', '54', '86']</t>
+  </si>
+  <si>
+    <t>['31', '52']</t>
   </si>
 </sst>
 </file>
@@ -675,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +916,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -919,7 +940,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1086,7 +1107,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1110,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1277,7 +1298,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1468,7 +1489,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1659,7 +1680,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1850,7 +1871,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1874,7 +1895,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2041,7 +2062,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -2065,7 +2086,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2232,7 +2253,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2256,7 +2277,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2423,7 +2444,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2447,7 +2468,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2614,7 +2635,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2780,6 +2801,1152 @@
       </c>
       <c r="BK11">
         <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6792816</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45156.58333333334</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>3.2</v>
+      </c>
+      <c r="U12">
+        <v>2.1</v>
+      </c>
+      <c r="V12">
+        <v>3.1</v>
+      </c>
+      <c r="W12">
+        <v>1.37</v>
+      </c>
+      <c r="X12">
+        <v>2.85</v>
+      </c>
+      <c r="Y12">
+        <v>2.7</v>
+      </c>
+      <c r="Z12">
+        <v>1.41</v>
+      </c>
+      <c r="AA12">
+        <v>6.45</v>
+      </c>
+      <c r="AB12">
+        <v>1.09</v>
+      </c>
+      <c r="AC12">
+        <v>2.55</v>
+      </c>
+      <c r="AD12">
+        <v>3.3</v>
+      </c>
+      <c r="AE12">
+        <v>2.6</v>
+      </c>
+      <c r="AF12">
+        <v>1.04</v>
+      </c>
+      <c r="AG12">
+        <v>9.5</v>
+      </c>
+      <c r="AH12">
+        <v>1.28</v>
+      </c>
+      <c r="AI12">
+        <v>3.5</v>
+      </c>
+      <c r="AJ12">
+        <v>1.83</v>
+      </c>
+      <c r="AK12">
+        <v>2.01</v>
+      </c>
+      <c r="AL12">
+        <v>1.68</v>
+      </c>
+      <c r="AM12">
+        <v>2.1</v>
+      </c>
+      <c r="AN12">
+        <v>1.42</v>
+      </c>
+      <c r="AO12">
+        <v>1.25</v>
+      </c>
+      <c r="AP12">
+        <v>1.47</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>2.03</v>
+      </c>
+      <c r="AY12">
+        <v>7.7</v>
+      </c>
+      <c r="AZ12">
+        <v>2.1</v>
+      </c>
+      <c r="BA12">
+        <v>1.23</v>
+      </c>
+      <c r="BB12">
+        <v>1.44</v>
+      </c>
+      <c r="BC12">
+        <v>1.95</v>
+      </c>
+      <c r="BD12">
+        <v>2.35</v>
+      </c>
+      <c r="BE12">
+        <v>3.25</v>
+      </c>
+      <c r="BF12">
+        <v>2</v>
+      </c>
+      <c r="BG12">
+        <v>2</v>
+      </c>
+      <c r="BH12">
+        <v>3</v>
+      </c>
+      <c r="BI12">
+        <v>8</v>
+      </c>
+      <c r="BJ12">
+        <v>5</v>
+      </c>
+      <c r="BK12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6792820</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45157.375</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>2.2</v>
+      </c>
+      <c r="V13">
+        <v>3.4</v>
+      </c>
+      <c r="W13">
+        <v>1.36</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>2.63</v>
+      </c>
+      <c r="Z13">
+        <v>1.44</v>
+      </c>
+      <c r="AA13">
+        <v>7</v>
+      </c>
+      <c r="AB13">
+        <v>1.1</v>
+      </c>
+      <c r="AC13">
+        <v>2.3</v>
+      </c>
+      <c r="AD13">
+        <v>3.4</v>
+      </c>
+      <c r="AE13">
+        <v>2.6</v>
+      </c>
+      <c r="AF13">
+        <v>1.05</v>
+      </c>
+      <c r="AG13">
+        <v>9</v>
+      </c>
+      <c r="AH13">
+        <v>1.25</v>
+      </c>
+      <c r="AI13">
+        <v>3.6</v>
+      </c>
+      <c r="AJ13">
+        <v>1.67</v>
+      </c>
+      <c r="AK13">
+        <v>2.05</v>
+      </c>
+      <c r="AL13">
+        <v>1.62</v>
+      </c>
+      <c r="AM13">
+        <v>2.2</v>
+      </c>
+      <c r="AN13">
+        <v>1.38</v>
+      </c>
+      <c r="AO13">
+        <v>1.25</v>
+      </c>
+      <c r="AP13">
+        <v>1.52</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1.93</v>
+      </c>
+      <c r="AY13">
+        <v>7.9</v>
+      </c>
+      <c r="AZ13">
+        <v>2.17</v>
+      </c>
+      <c r="BA13">
+        <v>1.49</v>
+      </c>
+      <c r="BB13">
+        <v>1.98</v>
+      </c>
+      <c r="BC13">
+        <v>2.55</v>
+      </c>
+      <c r="BD13">
+        <v>3.7</v>
+      </c>
+      <c r="BE13">
+        <v>5.2</v>
+      </c>
+      <c r="BF13">
+        <v>7</v>
+      </c>
+      <c r="BG13">
+        <v>5</v>
+      </c>
+      <c r="BH13">
+        <v>7</v>
+      </c>
+      <c r="BI13">
+        <v>1</v>
+      </c>
+      <c r="BJ13">
+        <v>14</v>
+      </c>
+      <c r="BK13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6792818</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45157.375</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="T14">
+        <v>2.5</v>
+      </c>
+      <c r="U14">
+        <v>2.25</v>
+      </c>
+      <c r="V14">
+        <v>4.33</v>
+      </c>
+      <c r="W14">
+        <v>1.36</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>2.63</v>
+      </c>
+      <c r="Z14">
+        <v>1.44</v>
+      </c>
+      <c r="AA14">
+        <v>7</v>
+      </c>
+      <c r="AB14">
+        <v>1.1</v>
+      </c>
+      <c r="AC14">
+        <v>1.91</v>
+      </c>
+      <c r="AD14">
+        <v>3.6</v>
+      </c>
+      <c r="AE14">
+        <v>3.25</v>
+      </c>
+      <c r="AF14">
+        <v>1.03</v>
+      </c>
+      <c r="AG14">
+        <v>14</v>
+      </c>
+      <c r="AH14">
+        <v>1.22</v>
+      </c>
+      <c r="AI14">
+        <v>4</v>
+      </c>
+      <c r="AJ14">
+        <v>1.75</v>
+      </c>
+      <c r="AK14">
+        <v>1.95</v>
+      </c>
+      <c r="AL14">
+        <v>1.73</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>1.25</v>
+      </c>
+      <c r="AO14">
+        <v>1.22</v>
+      </c>
+      <c r="AP14">
+        <v>1.8</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>3</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>1.7</v>
+      </c>
+      <c r="AY14">
+        <v>7</v>
+      </c>
+      <c r="AZ14">
+        <v>2.7</v>
+      </c>
+      <c r="BA14">
+        <v>1.32</v>
+      </c>
+      <c r="BB14">
+        <v>1.6</v>
+      </c>
+      <c r="BC14">
+        <v>2.05</v>
+      </c>
+      <c r="BD14">
+        <v>2.75</v>
+      </c>
+      <c r="BE14">
+        <v>4</v>
+      </c>
+      <c r="BF14">
+        <v>6</v>
+      </c>
+      <c r="BG14">
+        <v>4</v>
+      </c>
+      <c r="BH14">
+        <v>3</v>
+      </c>
+      <c r="BI14">
+        <v>11</v>
+      </c>
+      <c r="BJ14">
+        <v>9</v>
+      </c>
+      <c r="BK14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6792817</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45157.375</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>3.1</v>
+      </c>
+      <c r="U15">
+        <v>2.25</v>
+      </c>
+      <c r="V15">
+        <v>3.2</v>
+      </c>
+      <c r="W15">
+        <v>1.33</v>
+      </c>
+      <c r="X15">
+        <v>3.25</v>
+      </c>
+      <c r="Y15">
+        <v>2.63</v>
+      </c>
+      <c r="Z15">
+        <v>1.44</v>
+      </c>
+      <c r="AA15">
+        <v>6.5</v>
+      </c>
+      <c r="AB15">
+        <v>1.11</v>
+      </c>
+      <c r="AC15">
+        <v>2.38</v>
+      </c>
+      <c r="AD15">
+        <v>3.5</v>
+      </c>
+      <c r="AE15">
+        <v>2.5</v>
+      </c>
+      <c r="AF15">
+        <v>1.04</v>
+      </c>
+      <c r="AG15">
+        <v>10</v>
+      </c>
+      <c r="AH15">
+        <v>1.22</v>
+      </c>
+      <c r="AI15">
+        <v>4</v>
+      </c>
+      <c r="AJ15">
+        <v>1.67</v>
+      </c>
+      <c r="AK15">
+        <v>2.1</v>
+      </c>
+      <c r="AL15">
+        <v>1.57</v>
+      </c>
+      <c r="AM15">
+        <v>2.25</v>
+      </c>
+      <c r="AN15">
+        <v>1.38</v>
+      </c>
+      <c r="AO15">
+        <v>1.25</v>
+      </c>
+      <c r="AP15">
+        <v>1.52</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>3</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>1.95</v>
+      </c>
+      <c r="AY15">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ15">
+        <v>2.06</v>
+      </c>
+      <c r="BA15">
+        <v>1.13</v>
+      </c>
+      <c r="BB15">
+        <v>1.25</v>
+      </c>
+      <c r="BC15">
+        <v>1.46</v>
+      </c>
+      <c r="BD15">
+        <v>1.85</v>
+      </c>
+      <c r="BE15">
+        <v>2.3</v>
+      </c>
+      <c r="BF15">
+        <v>6</v>
+      </c>
+      <c r="BG15">
+        <v>11</v>
+      </c>
+      <c r="BH15">
+        <v>7</v>
+      </c>
+      <c r="BI15">
+        <v>1</v>
+      </c>
+      <c r="BJ15">
+        <v>13</v>
+      </c>
+      <c r="BK15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6792813</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45157.375</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <v>16</v>
+      </c>
+      <c r="T16">
+        <v>2.25</v>
+      </c>
+      <c r="U16">
+        <v>2.38</v>
+      </c>
+      <c r="V16">
+        <v>4.75</v>
+      </c>
+      <c r="W16">
+        <v>1.3</v>
+      </c>
+      <c r="X16">
+        <v>3.4</v>
+      </c>
+      <c r="Y16">
+        <v>2.5</v>
+      </c>
+      <c r="Z16">
+        <v>1.5</v>
+      </c>
+      <c r="AA16">
+        <v>6</v>
+      </c>
+      <c r="AB16">
+        <v>1.13</v>
+      </c>
+      <c r="AC16">
+        <v>1.6</v>
+      </c>
+      <c r="AD16">
+        <v>3.9</v>
+      </c>
+      <c r="AE16">
+        <v>4.5</v>
+      </c>
+      <c r="AF16">
+        <v>1.04</v>
+      </c>
+      <c r="AG16">
+        <v>10</v>
+      </c>
+      <c r="AH16">
+        <v>1.2</v>
+      </c>
+      <c r="AI16">
+        <v>4.2</v>
+      </c>
+      <c r="AJ16">
+        <v>1.61</v>
+      </c>
+      <c r="AK16">
+        <v>2.2</v>
+      </c>
+      <c r="AL16">
+        <v>1.67</v>
+      </c>
+      <c r="AM16">
+        <v>2.1</v>
+      </c>
+      <c r="AN16">
+        <v>1.16</v>
+      </c>
+      <c r="AO16">
+        <v>1.18</v>
+      </c>
+      <c r="AP16">
+        <v>2</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>3</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>1.53</v>
+      </c>
+      <c r="AY16">
+        <v>9.5</v>
+      </c>
+      <c r="AZ16">
+        <v>2.97</v>
+      </c>
+      <c r="BA16">
+        <v>1.18</v>
+      </c>
+      <c r="BB16">
+        <v>1.34</v>
+      </c>
+      <c r="BC16">
+        <v>1.6</v>
+      </c>
+      <c r="BD16">
+        <v>2.05</v>
+      </c>
+      <c r="BE16">
+        <v>2.7</v>
+      </c>
+      <c r="BF16">
+        <v>8</v>
+      </c>
+      <c r="BG16">
+        <v>6</v>
+      </c>
+      <c r="BH16">
+        <v>8</v>
+      </c>
+      <c r="BI16">
+        <v>1</v>
+      </c>
+      <c r="BJ16">
+        <v>16</v>
+      </c>
+      <c r="BK16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6792814</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45157.375</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>11</v>
+      </c>
+      <c r="S17">
+        <v>16</v>
+      </c>
+      <c r="T17">
+        <v>2.5</v>
+      </c>
+      <c r="U17">
+        <v>2.25</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>1.33</v>
+      </c>
+      <c r="X17">
+        <v>3.25</v>
+      </c>
+      <c r="Y17">
+        <v>2.63</v>
+      </c>
+      <c r="Z17">
+        <v>1.44</v>
+      </c>
+      <c r="AA17">
+        <v>6.5</v>
+      </c>
+      <c r="AB17">
+        <v>1.11</v>
+      </c>
+      <c r="AC17">
+        <v>1.91</v>
+      </c>
+      <c r="AD17">
+        <v>3.4</v>
+      </c>
+      <c r="AE17">
+        <v>3.4</v>
+      </c>
+      <c r="AF17">
+        <v>1.05</v>
+      </c>
+      <c r="AG17">
+        <v>9</v>
+      </c>
+      <c r="AH17">
+        <v>1.25</v>
+      </c>
+      <c r="AI17">
+        <v>3.75</v>
+      </c>
+      <c r="AJ17">
+        <v>1.73</v>
+      </c>
+      <c r="AK17">
+        <v>2</v>
+      </c>
+      <c r="AL17">
+        <v>1.67</v>
+      </c>
+      <c r="AM17">
+        <v>2.1</v>
+      </c>
+      <c r="AN17">
+        <v>1.25</v>
+      </c>
+      <c r="AO17">
+        <v>1.22</v>
+      </c>
+      <c r="AP17">
+        <v>1.78</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>1.6</v>
+      </c>
+      <c r="AY17">
+        <v>7</v>
+      </c>
+      <c r="AZ17">
+        <v>3</v>
+      </c>
+      <c r="BA17">
+        <v>1.17</v>
+      </c>
+      <c r="BB17">
+        <v>1.22</v>
+      </c>
+      <c r="BC17">
+        <v>1.41</v>
+      </c>
+      <c r="BD17">
+        <v>1.71</v>
+      </c>
+      <c r="BE17">
+        <v>2.2</v>
+      </c>
+      <c r="BF17">
+        <v>8</v>
+      </c>
+      <c r="BG17">
+        <v>4</v>
+      </c>
+      <c r="BH17">
+        <v>7</v>
+      </c>
+      <c r="BI17">
+        <v>2</v>
+      </c>
+      <c r="BJ17">
+        <v>15</v>
+      </c>
+      <c r="BK17">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="113">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -259,18 +259,18 @@
     <t>Ingolstadt</t>
   </si>
   <si>
+    <t>Waldhof Mannheim</t>
+  </si>
+  <si>
+    <t>Borussia Dortmund II</t>
+  </si>
+  <si>
+    <t>Verl</t>
+  </si>
+  <si>
     <t>Rot-Weiss Essen</t>
   </si>
   <si>
-    <t>Verl</t>
-  </si>
-  <si>
-    <t>Waldhof Mannheim</t>
-  </si>
-  <si>
-    <t>Borussia Dortmund II</t>
-  </si>
-  <si>
     <t>['2', '39']</t>
   </si>
   <si>
@@ -310,12 +310,21 @@
     <t>['15', '55', '65', '87']</t>
   </si>
   <si>
+    <t>['38', '45+4']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
-    <t>['29']</t>
-  </si>
-  <si>
     <t>['24']</t>
   </si>
   <si>
@@ -335,6 +344,15 @@
   </si>
   <si>
     <t>['31', '52']</t>
+  </si>
+  <si>
+    <t>['56', '82']</t>
+  </si>
+  <si>
+    <t>['11', '86']</t>
+  </si>
+  <si>
+    <t>['17']</t>
   </si>
 </sst>
 </file>
@@ -696,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +934,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -940,7 +958,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1107,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1131,7 +1149,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1489,7 +1507,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1680,7 +1698,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1895,7 +1913,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2086,7 +2104,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2277,7 +2295,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2468,7 +2486,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3041,7 +3059,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3423,7 +3441,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3614,7 +3632,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -3947,6 +3965,770 @@
       </c>
       <c r="BK17">
         <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6792815</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45157.47916666666</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>2.2</v>
+      </c>
+      <c r="U18">
+        <v>2.3</v>
+      </c>
+      <c r="V18">
+        <v>5.5</v>
+      </c>
+      <c r="W18">
+        <v>1.36</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>2.63</v>
+      </c>
+      <c r="Z18">
+        <v>1.44</v>
+      </c>
+      <c r="AA18">
+        <v>7</v>
+      </c>
+      <c r="AB18">
+        <v>1.1</v>
+      </c>
+      <c r="AC18">
+        <v>1.7</v>
+      </c>
+      <c r="AD18">
+        <v>3.9</v>
+      </c>
+      <c r="AE18">
+        <v>4.54</v>
+      </c>
+      <c r="AF18">
+        <v>1.05</v>
+      </c>
+      <c r="AG18">
+        <v>9</v>
+      </c>
+      <c r="AH18">
+        <v>1.22</v>
+      </c>
+      <c r="AI18">
+        <v>4</v>
+      </c>
+      <c r="AJ18">
+        <v>1.62</v>
+      </c>
+      <c r="AK18">
+        <v>2.21</v>
+      </c>
+      <c r="AL18">
+        <v>1.83</v>
+      </c>
+      <c r="AM18">
+        <v>1.83</v>
+      </c>
+      <c r="AN18">
+        <v>1.15</v>
+      </c>
+      <c r="AO18">
+        <v>1.2</v>
+      </c>
+      <c r="AP18">
+        <v>2.15</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>1.5</v>
+      </c>
+      <c r="AY18">
+        <v>7.5</v>
+      </c>
+      <c r="AZ18">
+        <v>3.3</v>
+      </c>
+      <c r="BA18">
+        <v>1.23</v>
+      </c>
+      <c r="BB18">
+        <v>1.44</v>
+      </c>
+      <c r="BC18">
+        <v>1.9</v>
+      </c>
+      <c r="BD18">
+        <v>2.35</v>
+      </c>
+      <c r="BE18">
+        <v>3.25</v>
+      </c>
+      <c r="BF18">
+        <v>4</v>
+      </c>
+      <c r="BG18">
+        <v>3</v>
+      </c>
+      <c r="BH18">
+        <v>2</v>
+      </c>
+      <c r="BI18">
+        <v>1</v>
+      </c>
+      <c r="BJ18">
+        <v>6</v>
+      </c>
+      <c r="BK18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6792821</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45158.35416666666</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>3.4</v>
+      </c>
+      <c r="U19">
+        <v>2.2</v>
+      </c>
+      <c r="V19">
+        <v>3.1</v>
+      </c>
+      <c r="W19">
+        <v>1.4</v>
+      </c>
+      <c r="X19">
+        <v>2.75</v>
+      </c>
+      <c r="Y19">
+        <v>2.75</v>
+      </c>
+      <c r="Z19">
+        <v>1.4</v>
+      </c>
+      <c r="AA19">
+        <v>8</v>
+      </c>
+      <c r="AB19">
+        <v>1.08</v>
+      </c>
+      <c r="AC19">
+        <v>2.61</v>
+      </c>
+      <c r="AD19">
+        <v>3.4</v>
+      </c>
+      <c r="AE19">
+        <v>2.25</v>
+      </c>
+      <c r="AF19">
+        <v>1.05</v>
+      </c>
+      <c r="AG19">
+        <v>9</v>
+      </c>
+      <c r="AH19">
+        <v>1.28</v>
+      </c>
+      <c r="AI19">
+        <v>3.5</v>
+      </c>
+      <c r="AJ19">
+        <v>1.83</v>
+      </c>
+      <c r="AK19">
+        <v>1.97</v>
+      </c>
+      <c r="AL19">
+        <v>1.73</v>
+      </c>
+      <c r="AM19">
+        <v>2</v>
+      </c>
+      <c r="AN19">
+        <v>1.51</v>
+      </c>
+      <c r="AO19">
+        <v>1.31</v>
+      </c>
+      <c r="AP19">
+        <v>1.43</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>3</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>2.2</v>
+      </c>
+      <c r="AY19">
+        <v>8.6</v>
+      </c>
+      <c r="AZ19">
+        <v>1.87</v>
+      </c>
+      <c r="BA19">
+        <v>1.26</v>
+      </c>
+      <c r="BB19">
+        <v>1.5</v>
+      </c>
+      <c r="BC19">
+        <v>1.98</v>
+      </c>
+      <c r="BD19">
+        <v>2.5</v>
+      </c>
+      <c r="BE19">
+        <v>3.5</v>
+      </c>
+      <c r="BF19">
+        <v>6</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>8</v>
+      </c>
+      <c r="BI19">
+        <v>6</v>
+      </c>
+      <c r="BJ19">
+        <v>14</v>
+      </c>
+      <c r="BK19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6792812</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45158.47916666666</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>3.25</v>
+      </c>
+      <c r="U20">
+        <v>2.3</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>1.33</v>
+      </c>
+      <c r="X20">
+        <v>3.25</v>
+      </c>
+      <c r="Y20">
+        <v>2.5</v>
+      </c>
+      <c r="Z20">
+        <v>1.5</v>
+      </c>
+      <c r="AA20">
+        <v>6.5</v>
+      </c>
+      <c r="AB20">
+        <v>1.11</v>
+      </c>
+      <c r="AC20">
+        <v>2.5</v>
+      </c>
+      <c r="AD20">
+        <v>3.21</v>
+      </c>
+      <c r="AE20">
+        <v>2.18</v>
+      </c>
+      <c r="AF20">
+        <v>1.04</v>
+      </c>
+      <c r="AG20">
+        <v>10</v>
+      </c>
+      <c r="AH20">
+        <v>1.2</v>
+      </c>
+      <c r="AI20">
+        <v>4.2</v>
+      </c>
+      <c r="AJ20">
+        <v>1.59</v>
+      </c>
+      <c r="AK20">
+        <v>2.25</v>
+      </c>
+      <c r="AL20">
+        <v>1.57</v>
+      </c>
+      <c r="AM20">
+        <v>2.25</v>
+      </c>
+      <c r="AN20">
+        <v>1.49</v>
+      </c>
+      <c r="AO20">
+        <v>1.29</v>
+      </c>
+      <c r="AP20">
+        <v>1.47</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>3</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>1.3</v>
+      </c>
+      <c r="BB20">
+        <v>1.55</v>
+      </c>
+      <c r="BC20">
+        <v>1.98</v>
+      </c>
+      <c r="BD20">
+        <v>2.65</v>
+      </c>
+      <c r="BE20">
+        <v>3.8</v>
+      </c>
+      <c r="BF20">
+        <v>9</v>
+      </c>
+      <c r="BG20">
+        <v>4</v>
+      </c>
+      <c r="BH20">
+        <v>7</v>
+      </c>
+      <c r="BI20">
+        <v>4</v>
+      </c>
+      <c r="BJ20">
+        <v>16</v>
+      </c>
+      <c r="BK20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6792819</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45158.60416666666</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>2.75</v>
+      </c>
+      <c r="U21">
+        <v>2.3</v>
+      </c>
+      <c r="V21">
+        <v>3.6</v>
+      </c>
+      <c r="W21">
+        <v>1.33</v>
+      </c>
+      <c r="X21">
+        <v>3.25</v>
+      </c>
+      <c r="Y21">
+        <v>2.5</v>
+      </c>
+      <c r="Z21">
+        <v>1.5</v>
+      </c>
+      <c r="AA21">
+        <v>6.5</v>
+      </c>
+      <c r="AB21">
+        <v>1.11</v>
+      </c>
+      <c r="AC21">
+        <v>2.21</v>
+      </c>
+      <c r="AD21">
+        <v>3.15</v>
+      </c>
+      <c r="AE21">
+        <v>2.5</v>
+      </c>
+      <c r="AF21">
+        <v>1.04</v>
+      </c>
+      <c r="AG21">
+        <v>10.5</v>
+      </c>
+      <c r="AH21">
+        <v>1.23</v>
+      </c>
+      <c r="AI21">
+        <v>3.75</v>
+      </c>
+      <c r="AJ21">
+        <v>1.79</v>
+      </c>
+      <c r="AK21">
+        <v>2.05</v>
+      </c>
+      <c r="AL21">
+        <v>1.57</v>
+      </c>
+      <c r="AM21">
+        <v>2.25</v>
+      </c>
+      <c r="AN21">
+        <v>1.25</v>
+      </c>
+      <c r="AO21">
+        <v>1.22</v>
+      </c>
+      <c r="AP21">
+        <v>1.78</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>1.67</v>
+      </c>
+      <c r="AY21">
+        <v>7</v>
+      </c>
+      <c r="AZ21">
+        <v>2.8</v>
+      </c>
+      <c r="BA21">
+        <v>1.3</v>
+      </c>
+      <c r="BB21">
+        <v>1.55</v>
+      </c>
+      <c r="BC21">
+        <v>1.98</v>
+      </c>
+      <c r="BD21">
+        <v>2.65</v>
+      </c>
+      <c r="BE21">
+        <v>3.8</v>
+      </c>
+      <c r="BF21">
+        <v>5</v>
+      </c>
+      <c r="BG21">
+        <v>3</v>
+      </c>
+      <c r="BH21">
+        <v>3</v>
+      </c>
+      <c r="BI21">
+        <v>4</v>
+      </c>
+      <c r="BJ21">
+        <v>8</v>
+      </c>
+      <c r="BK21">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,27 @@
     <t>['29']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['61', '88', '90+4']</t>
+  </si>
+  <si>
+    <t>['23', '29']</t>
+  </si>
+  <si>
+    <t>['4', '86']</t>
+  </si>
+  <si>
+    <t>['4', '60', '76', '90+1']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -353,6 +374,21 @@
   </si>
   <si>
     <t>['17']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['25', '31']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['34', '36', '54']</t>
   </si>
 </sst>
 </file>
@@ -714,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -958,7 +994,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1045,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1236,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1430,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1618,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
         <v>0</v>
@@ -1809,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -1913,7 +1949,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2104,7 +2140,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2295,7 +2331,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2382,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -2486,7 +2522,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3059,7 +3095,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3441,7 +3477,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3632,7 +3668,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -3719,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
         <v>3</v>
@@ -4014,7 +4050,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4104,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4396,7 +4432,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4587,7 +4623,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -4729,6 +4765,1916 @@
       </c>
       <c r="BK21">
         <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6792829</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45160.58333333334</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>11</v>
+      </c>
+      <c r="T22">
+        <v>2.95</v>
+      </c>
+      <c r="U22">
+        <v>2.2</v>
+      </c>
+      <c r="V22">
+        <v>3.2</v>
+      </c>
+      <c r="W22">
+        <v>1.33</v>
+      </c>
+      <c r="X22">
+        <v>3.05</v>
+      </c>
+      <c r="Y22">
+        <v>2.5</v>
+      </c>
+      <c r="Z22">
+        <v>1.47</v>
+      </c>
+      <c r="AA22">
+        <v>5.95</v>
+      </c>
+      <c r="AB22">
+        <v>1.1</v>
+      </c>
+      <c r="AC22">
+        <v>2.37</v>
+      </c>
+      <c r="AD22">
+        <v>3.45</v>
+      </c>
+      <c r="AE22">
+        <v>2.65</v>
+      </c>
+      <c r="AF22">
+        <v>1.05</v>
+      </c>
+      <c r="AG22">
+        <v>9</v>
+      </c>
+      <c r="AH22">
+        <v>1.22</v>
+      </c>
+      <c r="AI22">
+        <v>4</v>
+      </c>
+      <c r="AJ22">
+        <v>1.62</v>
+      </c>
+      <c r="AK22">
+        <v>2.21</v>
+      </c>
+      <c r="AL22">
+        <v>1.6</v>
+      </c>
+      <c r="AM22">
+        <v>2.25</v>
+      </c>
+      <c r="AN22">
+        <v>1.38</v>
+      </c>
+      <c r="AO22">
+        <v>1.22</v>
+      </c>
+      <c r="AP22">
+        <v>1.55</v>
+      </c>
+      <c r="AQ22">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>1</v>
+      </c>
+      <c r="AS22">
+        <v>2</v>
+      </c>
+      <c r="AT22">
+        <v>1</v>
+      </c>
+      <c r="AU22">
+        <v>1.02</v>
+      </c>
+      <c r="AV22">
+        <v>1.61</v>
+      </c>
+      <c r="AW22">
+        <v>2.63</v>
+      </c>
+      <c r="AX22">
+        <v>1.69</v>
+      </c>
+      <c r="AY22">
+        <v>9.5</v>
+      </c>
+      <c r="AZ22">
+        <v>2.45</v>
+      </c>
+      <c r="BA22">
+        <v>1.14</v>
+      </c>
+      <c r="BB22">
+        <v>1.25</v>
+      </c>
+      <c r="BC22">
+        <v>1.53</v>
+      </c>
+      <c r="BD22">
+        <v>1.83</v>
+      </c>
+      <c r="BE22">
+        <v>2.23</v>
+      </c>
+      <c r="BF22">
+        <v>3</v>
+      </c>
+      <c r="BG22">
+        <v>3</v>
+      </c>
+      <c r="BH22">
+        <v>6</v>
+      </c>
+      <c r="BI22">
+        <v>3</v>
+      </c>
+      <c r="BJ22">
+        <v>9</v>
+      </c>
+      <c r="BK22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6792830</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45160.58333333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>2.2</v>
+      </c>
+      <c r="U23">
+        <v>2.25</v>
+      </c>
+      <c r="V23">
+        <v>4.75</v>
+      </c>
+      <c r="W23">
+        <v>1.35</v>
+      </c>
+      <c r="X23">
+        <v>2.95</v>
+      </c>
+      <c r="Y23">
+        <v>2.6</v>
+      </c>
+      <c r="Z23">
+        <v>1.44</v>
+      </c>
+      <c r="AA23">
+        <v>6.45</v>
+      </c>
+      <c r="AB23">
+        <v>1.09</v>
+      </c>
+      <c r="AC23">
+        <v>1.64</v>
+      </c>
+      <c r="AD23">
+        <v>3.85</v>
+      </c>
+      <c r="AE23">
+        <v>4.6</v>
+      </c>
+      <c r="AF23">
+        <v>1.05</v>
+      </c>
+      <c r="AG23">
+        <v>9</v>
+      </c>
+      <c r="AH23">
+        <v>1.25</v>
+      </c>
+      <c r="AI23">
+        <v>3.75</v>
+      </c>
+      <c r="AJ23">
+        <v>1.73</v>
+      </c>
+      <c r="AK23">
+        <v>2.03</v>
+      </c>
+      <c r="AL23">
+        <v>1.78</v>
+      </c>
+      <c r="AM23">
+        <v>1.95</v>
+      </c>
+      <c r="AN23">
+        <v>1.14</v>
+      </c>
+      <c r="AO23">
+        <v>1.2</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>1.5</v>
+      </c>
+      <c r="AT23">
+        <v>2</v>
+      </c>
+      <c r="AU23">
+        <v>1.22</v>
+      </c>
+      <c r="AV23">
+        <v>0.5</v>
+      </c>
+      <c r="AW23">
+        <v>1.72</v>
+      </c>
+      <c r="AX23">
+        <v>1.33</v>
+      </c>
+      <c r="AY23">
+        <v>8.5</v>
+      </c>
+      <c r="AZ23">
+        <v>4.33</v>
+      </c>
+      <c r="BA23">
+        <v>1.18</v>
+      </c>
+      <c r="BB23">
+        <v>1.32</v>
+      </c>
+      <c r="BC23">
+        <v>1.57</v>
+      </c>
+      <c r="BD23">
+        <v>1.98</v>
+      </c>
+      <c r="BE23">
+        <v>2.65</v>
+      </c>
+      <c r="BF23">
+        <v>4</v>
+      </c>
+      <c r="BG23">
+        <v>4</v>
+      </c>
+      <c r="BH23">
+        <v>8</v>
+      </c>
+      <c r="BI23">
+        <v>4</v>
+      </c>
+      <c r="BJ23">
+        <v>12</v>
+      </c>
+      <c r="BK23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6792826</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45160.58333333334</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>3.5</v>
+      </c>
+      <c r="U24">
+        <v>2.2</v>
+      </c>
+      <c r="V24">
+        <v>2.7</v>
+      </c>
+      <c r="W24">
+        <v>1.35</v>
+      </c>
+      <c r="X24">
+        <v>2.95</v>
+      </c>
+      <c r="Y24">
+        <v>2.6</v>
+      </c>
+      <c r="Z24">
+        <v>1.44</v>
+      </c>
+      <c r="AA24">
+        <v>6</v>
+      </c>
+      <c r="AB24">
+        <v>1.1</v>
+      </c>
+      <c r="AC24">
+        <v>3.1</v>
+      </c>
+      <c r="AD24">
+        <v>3.55</v>
+      </c>
+      <c r="AE24">
+        <v>2.07</v>
+      </c>
+      <c r="AF24">
+        <v>1.05</v>
+      </c>
+      <c r="AG24">
+        <v>9</v>
+      </c>
+      <c r="AH24">
+        <v>1.25</v>
+      </c>
+      <c r="AI24">
+        <v>3.75</v>
+      </c>
+      <c r="AJ24">
+        <v>1.74</v>
+      </c>
+      <c r="AK24">
+        <v>2.02</v>
+      </c>
+      <c r="AL24">
+        <v>1.62</v>
+      </c>
+      <c r="AM24">
+        <v>2.2</v>
+      </c>
+      <c r="AN24">
+        <v>1.68</v>
+      </c>
+      <c r="AO24">
+        <v>1.22</v>
+      </c>
+      <c r="AP24">
+        <v>1.35</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>2</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>1.28</v>
+      </c>
+      <c r="AV24">
+        <v>1.16</v>
+      </c>
+      <c r="AW24">
+        <v>2.44</v>
+      </c>
+      <c r="AX24">
+        <v>2.25</v>
+      </c>
+      <c r="AY24">
+        <v>7</v>
+      </c>
+      <c r="AZ24">
+        <v>1.95</v>
+      </c>
+      <c r="BA24">
+        <v>1.2</v>
+      </c>
+      <c r="BB24">
+        <v>1.4</v>
+      </c>
+      <c r="BC24">
+        <v>1.7</v>
+      </c>
+      <c r="BD24">
+        <v>2.2</v>
+      </c>
+      <c r="BE24">
+        <v>3</v>
+      </c>
+      <c r="BF24">
+        <v>5</v>
+      </c>
+      <c r="BG24">
+        <v>4</v>
+      </c>
+      <c r="BH24">
+        <v>6</v>
+      </c>
+      <c r="BI24">
+        <v>6</v>
+      </c>
+      <c r="BJ24">
+        <v>11</v>
+      </c>
+      <c r="BK24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6792823</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45160.58333333334</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <v>2.9</v>
+      </c>
+      <c r="U25">
+        <v>2.2</v>
+      </c>
+      <c r="V25">
+        <v>3.2</v>
+      </c>
+      <c r="W25">
+        <v>1.33</v>
+      </c>
+      <c r="X25">
+        <v>3.05</v>
+      </c>
+      <c r="Y25">
+        <v>2.5</v>
+      </c>
+      <c r="Z25">
+        <v>1.47</v>
+      </c>
+      <c r="AA25">
+        <v>5.95</v>
+      </c>
+      <c r="AB25">
+        <v>1.1</v>
+      </c>
+      <c r="AC25">
+        <v>2.35</v>
+      </c>
+      <c r="AD25">
+        <v>3.5</v>
+      </c>
+      <c r="AE25">
+        <v>2.65</v>
+      </c>
+      <c r="AF25">
+        <v>1.05</v>
+      </c>
+      <c r="AG25">
+        <v>9</v>
+      </c>
+      <c r="AH25">
+        <v>1.22</v>
+      </c>
+      <c r="AI25">
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <v>1.78</v>
+      </c>
+      <c r="AK25">
+        <v>1.97</v>
+      </c>
+      <c r="AL25">
+        <v>1.6</v>
+      </c>
+      <c r="AM25">
+        <v>2.25</v>
+      </c>
+      <c r="AN25">
+        <v>1.36</v>
+      </c>
+      <c r="AO25">
+        <v>1.22</v>
+      </c>
+      <c r="AP25">
+        <v>1.57</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>2</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>1.8</v>
+      </c>
+      <c r="AV25">
+        <v>1.32</v>
+      </c>
+      <c r="AW25">
+        <v>3.12</v>
+      </c>
+      <c r="AX25">
+        <v>1.88</v>
+      </c>
+      <c r="AY25">
+        <v>7.5</v>
+      </c>
+      <c r="AZ25">
+        <v>2.3</v>
+      </c>
+      <c r="BA25">
+        <v>1.18</v>
+      </c>
+      <c r="BB25">
+        <v>1.31</v>
+      </c>
+      <c r="BC25">
+        <v>1.57</v>
+      </c>
+      <c r="BD25">
+        <v>1.98</v>
+      </c>
+      <c r="BE25">
+        <v>2.6</v>
+      </c>
+      <c r="BF25">
+        <v>9</v>
+      </c>
+      <c r="BG25">
+        <v>5</v>
+      </c>
+      <c r="BH25">
+        <v>5</v>
+      </c>
+      <c r="BI25">
+        <v>4</v>
+      </c>
+      <c r="BJ25">
+        <v>14</v>
+      </c>
+      <c r="BK25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6792824</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45160.58333333334</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
+        <v>2.3</v>
+      </c>
+      <c r="V26">
+        <v>4.33</v>
+      </c>
+      <c r="W26">
+        <v>1.33</v>
+      </c>
+      <c r="X26">
+        <v>3.05</v>
+      </c>
+      <c r="Y26">
+        <v>2.5</v>
+      </c>
+      <c r="Z26">
+        <v>1.47</v>
+      </c>
+      <c r="AA26">
+        <v>5.95</v>
+      </c>
+      <c r="AB26">
+        <v>1.1</v>
+      </c>
+      <c r="AC26">
+        <v>1.65</v>
+      </c>
+      <c r="AD26">
+        <v>3.85</v>
+      </c>
+      <c r="AE26">
+        <v>4.4</v>
+      </c>
+      <c r="AF26">
+        <v>1.04</v>
+      </c>
+      <c r="AG26">
+        <v>10</v>
+      </c>
+      <c r="AH26">
+        <v>1.22</v>
+      </c>
+      <c r="AI26">
+        <v>4</v>
+      </c>
+      <c r="AJ26">
+        <v>1.62</v>
+      </c>
+      <c r="AK26">
+        <v>2.21</v>
+      </c>
+      <c r="AL26">
+        <v>1.68</v>
+      </c>
+      <c r="AM26">
+        <v>2.1</v>
+      </c>
+      <c r="AN26">
+        <v>1.16</v>
+      </c>
+      <c r="AO26">
+        <v>1.2</v>
+      </c>
+      <c r="AP26">
+        <v>1.95</v>
+      </c>
+      <c r="AQ26">
+        <v>3</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>3</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>1.6</v>
+      </c>
+      <c r="AV26">
+        <v>1.39</v>
+      </c>
+      <c r="AW26">
+        <v>2.99</v>
+      </c>
+      <c r="AX26">
+        <v>1.64</v>
+      </c>
+      <c r="AY26">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ26">
+        <v>2.62</v>
+      </c>
+      <c r="BA26">
+        <v>1.28</v>
+      </c>
+      <c r="BB26">
+        <v>1.58</v>
+      </c>
+      <c r="BC26">
+        <v>1.96</v>
+      </c>
+      <c r="BD26">
+        <v>2.4</v>
+      </c>
+      <c r="BE26">
+        <v>3.34</v>
+      </c>
+      <c r="BF26">
+        <v>8</v>
+      </c>
+      <c r="BG26">
+        <v>3</v>
+      </c>
+      <c r="BH26">
+        <v>5</v>
+      </c>
+      <c r="BI26">
+        <v>6</v>
+      </c>
+      <c r="BJ26">
+        <v>13</v>
+      </c>
+      <c r="BK26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6792828</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45161.58333333334</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>16</v>
+      </c>
+      <c r="T27">
+        <v>3.25</v>
+      </c>
+      <c r="U27">
+        <v>2.2</v>
+      </c>
+      <c r="V27">
+        <v>2.8</v>
+      </c>
+      <c r="W27">
+        <v>1.32</v>
+      </c>
+      <c r="X27">
+        <v>3.1</v>
+      </c>
+      <c r="Y27">
+        <v>2.5</v>
+      </c>
+      <c r="Z27">
+        <v>1.47</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AB27">
+        <v>1.11</v>
+      </c>
+      <c r="AC27">
+        <v>2.8</v>
+      </c>
+      <c r="AD27">
+        <v>3.25</v>
+      </c>
+      <c r="AE27">
+        <v>2.2</v>
+      </c>
+      <c r="AF27">
+        <v>1.04</v>
+      </c>
+      <c r="AG27">
+        <v>11</v>
+      </c>
+      <c r="AH27">
+        <v>1.22</v>
+      </c>
+      <c r="AI27">
+        <v>3.8</v>
+      </c>
+      <c r="AJ27">
+        <v>1.7</v>
+      </c>
+      <c r="AK27">
+        <v>2</v>
+      </c>
+      <c r="AL27">
+        <v>1.6</v>
+      </c>
+      <c r="AM27">
+        <v>2.15</v>
+      </c>
+      <c r="AN27">
+        <v>1.58</v>
+      </c>
+      <c r="AO27">
+        <v>1.28</v>
+      </c>
+      <c r="AP27">
+        <v>1.41</v>
+      </c>
+      <c r="AQ27">
+        <v>3</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+      <c r="AS27">
+        <v>3</v>
+      </c>
+      <c r="AT27">
+        <v>0.5</v>
+      </c>
+      <c r="AU27">
+        <v>1.42</v>
+      </c>
+      <c r="AV27">
+        <v>1.58</v>
+      </c>
+      <c r="AW27">
+        <v>3</v>
+      </c>
+      <c r="AX27">
+        <v>2.19</v>
+      </c>
+      <c r="AY27">
+        <v>9</v>
+      </c>
+      <c r="AZ27">
+        <v>1.86</v>
+      </c>
+      <c r="BA27">
+        <v>1.15</v>
+      </c>
+      <c r="BB27">
+        <v>1.28</v>
+      </c>
+      <c r="BC27">
+        <v>1.51</v>
+      </c>
+      <c r="BD27">
+        <v>1.98</v>
+      </c>
+      <c r="BE27">
+        <v>2.45</v>
+      </c>
+      <c r="BF27">
+        <v>2</v>
+      </c>
+      <c r="BG27">
+        <v>2</v>
+      </c>
+      <c r="BH27">
+        <v>4</v>
+      </c>
+      <c r="BI27">
+        <v>5</v>
+      </c>
+      <c r="BJ27">
+        <v>6</v>
+      </c>
+      <c r="BK27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6792822</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45161.58333333334</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q28">
+        <v>9</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>14</v>
+      </c>
+      <c r="T28">
+        <v>2.65</v>
+      </c>
+      <c r="U28">
+        <v>2.2</v>
+      </c>
+      <c r="V28">
+        <v>3.4</v>
+      </c>
+      <c r="W28">
+        <v>1.33</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>2.5</v>
+      </c>
+      <c r="Z28">
+        <v>1.47</v>
+      </c>
+      <c r="AA28">
+        <v>6</v>
+      </c>
+      <c r="AB28">
+        <v>1.11</v>
+      </c>
+      <c r="AC28">
+        <v>2.15</v>
+      </c>
+      <c r="AD28">
+        <v>3.6</v>
+      </c>
+      <c r="AE28">
+        <v>2.65</v>
+      </c>
+      <c r="AF28">
+        <v>1.04</v>
+      </c>
+      <c r="AG28">
+        <v>11</v>
+      </c>
+      <c r="AH28">
+        <v>1.23</v>
+      </c>
+      <c r="AI28">
+        <v>3.8</v>
+      </c>
+      <c r="AJ28">
+        <v>1.62</v>
+      </c>
+      <c r="AK28">
+        <v>2.15</v>
+      </c>
+      <c r="AL28">
+        <v>1.61</v>
+      </c>
+      <c r="AM28">
+        <v>2.15</v>
+      </c>
+      <c r="AN28">
+        <v>1.36</v>
+      </c>
+      <c r="AO28">
+        <v>1.28</v>
+      </c>
+      <c r="AP28">
+        <v>1.65</v>
+      </c>
+      <c r="AQ28">
+        <v>3</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>2</v>
+      </c>
+      <c r="AT28">
+        <v>0.5</v>
+      </c>
+      <c r="AU28">
+        <v>1.09</v>
+      </c>
+      <c r="AV28">
+        <v>2.09</v>
+      </c>
+      <c r="AW28">
+        <v>3.18</v>
+      </c>
+      <c r="AX28">
+        <v>1.71</v>
+      </c>
+      <c r="AY28">
+        <v>8.6</v>
+      </c>
+      <c r="AZ28">
+        <v>2.47</v>
+      </c>
+      <c r="BA28">
+        <v>1.24</v>
+      </c>
+      <c r="BB28">
+        <v>1.46</v>
+      </c>
+      <c r="BC28">
+        <v>1.85</v>
+      </c>
+      <c r="BD28">
+        <v>2.37</v>
+      </c>
+      <c r="BE28">
+        <v>3.3</v>
+      </c>
+      <c r="BF28">
+        <v>9</v>
+      </c>
+      <c r="BG28">
+        <v>4</v>
+      </c>
+      <c r="BH28">
+        <v>5</v>
+      </c>
+      <c r="BI28">
+        <v>3</v>
+      </c>
+      <c r="BJ28">
+        <v>14</v>
+      </c>
+      <c r="BK28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6792831</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45161.58333333334</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>12</v>
+      </c>
+      <c r="T29">
+        <v>2.17</v>
+      </c>
+      <c r="U29">
+        <v>2.23</v>
+      </c>
+      <c r="V29">
+        <v>5.1</v>
+      </c>
+      <c r="W29">
+        <v>1.34</v>
+      </c>
+      <c r="X29">
+        <v>2.95</v>
+      </c>
+      <c r="Y29">
+        <v>2.6</v>
+      </c>
+      <c r="Z29">
+        <v>1.43</v>
+      </c>
+      <c r="AA29">
+        <v>6.5</v>
+      </c>
+      <c r="AB29">
+        <v>1.1</v>
+      </c>
+      <c r="AC29">
+        <v>1.95</v>
+      </c>
+      <c r="AD29">
+        <v>3.35</v>
+      </c>
+      <c r="AE29">
+        <v>3.2</v>
+      </c>
+      <c r="AF29">
+        <v>1.04</v>
+      </c>
+      <c r="AG29">
+        <v>10.5</v>
+      </c>
+      <c r="AH29">
+        <v>1.26</v>
+      </c>
+      <c r="AI29">
+        <v>3.5</v>
+      </c>
+      <c r="AJ29">
+        <v>1.75</v>
+      </c>
+      <c r="AK29">
+        <v>1.95</v>
+      </c>
+      <c r="AL29">
+        <v>1.82</v>
+      </c>
+      <c r="AM29">
+        <v>1.85</v>
+      </c>
+      <c r="AN29">
+        <v>1.18</v>
+      </c>
+      <c r="AO29">
+        <v>1.23</v>
+      </c>
+      <c r="AP29">
+        <v>2.2</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+      <c r="AS29">
+        <v>1</v>
+      </c>
+      <c r="AT29">
+        <v>1</v>
+      </c>
+      <c r="AU29">
+        <v>1.18</v>
+      </c>
+      <c r="AV29">
+        <v>1.03</v>
+      </c>
+      <c r="AW29">
+        <v>2.21</v>
+      </c>
+      <c r="AX29">
+        <v>1.69</v>
+      </c>
+      <c r="AY29">
+        <v>9</v>
+      </c>
+      <c r="AZ29">
+        <v>2.48</v>
+      </c>
+      <c r="BA29">
+        <v>1.21</v>
+      </c>
+      <c r="BB29">
+        <v>1.4</v>
+      </c>
+      <c r="BC29">
+        <v>1.71</v>
+      </c>
+      <c r="BD29">
+        <v>2.2</v>
+      </c>
+      <c r="BE29">
+        <v>3</v>
+      </c>
+      <c r="BF29">
+        <v>2</v>
+      </c>
+      <c r="BG29">
+        <v>5</v>
+      </c>
+      <c r="BH29">
+        <v>4</v>
+      </c>
+      <c r="BI29">
+        <v>2</v>
+      </c>
+      <c r="BJ29">
+        <v>6</v>
+      </c>
+      <c r="BK29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6792832</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45161.58333333334</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30">
+        <v>-1</v>
+      </c>
+      <c r="R30">
+        <v>-1</v>
+      </c>
+      <c r="S30">
+        <v>-1</v>
+      </c>
+      <c r="T30">
+        <v>2.3</v>
+      </c>
+      <c r="U30">
+        <v>2.25</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <v>1.32</v>
+      </c>
+      <c r="X30">
+        <v>3.1</v>
+      </c>
+      <c r="Y30">
+        <v>2.45</v>
+      </c>
+      <c r="Z30">
+        <v>1.47</v>
+      </c>
+      <c r="AA30">
+        <v>5.75</v>
+      </c>
+      <c r="AB30">
+        <v>1.11</v>
+      </c>
+      <c r="AC30">
+        <v>1.73</v>
+      </c>
+      <c r="AD30">
+        <v>3.75</v>
+      </c>
+      <c r="AE30">
+        <v>3.6</v>
+      </c>
+      <c r="AF30">
+        <v>1.04</v>
+      </c>
+      <c r="AG30">
+        <v>11.5</v>
+      </c>
+      <c r="AH30">
+        <v>1.22</v>
+      </c>
+      <c r="AI30">
+        <v>3.9</v>
+      </c>
+      <c r="AJ30">
+        <v>1.6</v>
+      </c>
+      <c r="AK30">
+        <v>2.2</v>
+      </c>
+      <c r="AL30">
+        <v>1.66</v>
+      </c>
+      <c r="AM30">
+        <v>2.05</v>
+      </c>
+      <c r="AN30">
+        <v>1.24</v>
+      </c>
+      <c r="AO30">
+        <v>1.25</v>
+      </c>
+      <c r="AP30">
+        <v>1.93</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AS30">
+        <v>1</v>
+      </c>
+      <c r="AT30">
+        <v>1</v>
+      </c>
+      <c r="AU30">
+        <v>2.19</v>
+      </c>
+      <c r="AV30">
+        <v>0.59</v>
+      </c>
+      <c r="AW30">
+        <v>2.78</v>
+      </c>
+      <c r="AX30">
+        <v>1.53</v>
+      </c>
+      <c r="AY30">
+        <v>9.1</v>
+      </c>
+      <c r="AZ30">
+        <v>2.92</v>
+      </c>
+      <c r="BA30">
+        <v>1.21</v>
+      </c>
+      <c r="BB30">
+        <v>1.4</v>
+      </c>
+      <c r="BC30">
+        <v>1.71</v>
+      </c>
+      <c r="BD30">
+        <v>2.2</v>
+      </c>
+      <c r="BE30">
+        <v>3</v>
+      </c>
+      <c r="BF30">
+        <v>-1</v>
+      </c>
+      <c r="BG30">
+        <v>-1</v>
+      </c>
+      <c r="BH30">
+        <v>-1</v>
+      </c>
+      <c r="BI30">
+        <v>-1</v>
+      </c>
+      <c r="BJ30">
+        <v>-1</v>
+      </c>
+      <c r="BK30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6792825</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45161.58333333334</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31">
+        <v>8</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>11</v>
+      </c>
+      <c r="T31">
+        <v>2.15</v>
+      </c>
+      <c r="U31">
+        <v>2.25</v>
+      </c>
+      <c r="V31">
+        <v>4.6</v>
+      </c>
+      <c r="W31">
+        <v>1.31</v>
+      </c>
+      <c r="X31">
+        <v>3.2</v>
+      </c>
+      <c r="Y31">
+        <v>2.35</v>
+      </c>
+      <c r="Z31">
+        <v>1.51</v>
+      </c>
+      <c r="AA31">
+        <v>5.5</v>
+      </c>
+      <c r="AB31">
+        <v>1.12</v>
+      </c>
+      <c r="AC31">
+        <v>1.6</v>
+      </c>
+      <c r="AD31">
+        <v>4.2</v>
+      </c>
+      <c r="AE31">
+        <v>4</v>
+      </c>
+      <c r="AF31">
+        <v>1.04</v>
+      </c>
+      <c r="AG31">
+        <v>11.5</v>
+      </c>
+      <c r="AH31">
+        <v>1.21</v>
+      </c>
+      <c r="AI31">
+        <v>4</v>
+      </c>
+      <c r="AJ31">
+        <v>1.53</v>
+      </c>
+      <c r="AK31">
+        <v>2.35</v>
+      </c>
+      <c r="AL31">
+        <v>1.68</v>
+      </c>
+      <c r="AM31">
+        <v>2.05</v>
+      </c>
+      <c r="AN31">
+        <v>1.18</v>
+      </c>
+      <c r="AO31">
+        <v>1.24</v>
+      </c>
+      <c r="AP31">
+        <v>2.15</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>1.5</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>2.2</v>
+      </c>
+      <c r="AV31">
+        <v>1.36</v>
+      </c>
+      <c r="AW31">
+        <v>3.56</v>
+      </c>
+      <c r="AX31">
+        <v>1.58</v>
+      </c>
+      <c r="AY31">
+        <v>9.6</v>
+      </c>
+      <c r="AZ31">
+        <v>2.71</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>1.26</v>
+      </c>
+      <c r="BC31">
+        <v>1.47</v>
+      </c>
+      <c r="BD31">
+        <v>1.93</v>
+      </c>
+      <c r="BE31">
+        <v>2.35</v>
+      </c>
+      <c r="BF31">
+        <v>5</v>
+      </c>
+      <c r="BG31">
+        <v>6</v>
+      </c>
+      <c r="BH31">
+        <v>7</v>
+      </c>
+      <c r="BI31">
+        <v>3</v>
+      </c>
+      <c r="BJ31">
+        <v>12</v>
+      </c>
+      <c r="BK31">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -5895,19 +5895,19 @@
         <v>2.45</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH27">
         <v>4</v>
       </c>
       <c r="BI27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK27">
         <v>7</v>
@@ -6095,13 +6095,13 @@
         <v>5</v>
       </c>
       <c r="BI28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ28">
         <v>14</v>
       </c>
       <c r="BK28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:63">
@@ -6283,16 +6283,16 @@
         <v>5</v>
       </c>
       <c r="BH29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK29">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6345,13 +6345,13 @@
         <v>87</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T30">
         <v>2.3</v>
@@ -6468,22 +6468,22 @@
         <v>3</v>
       </c>
       <c r="BF30">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG30">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH30">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK30">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6659,7 +6659,7 @@
         <v>2.35</v>
       </c>
       <c r="BF31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG31">
         <v>6</v>
@@ -6671,7 +6671,7 @@
         <v>3</v>
       </c>
       <c r="BJ31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BK31">
         <v>9</v>

--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,12 +343,30 @@
     <t>['4', '60', '76', '90+1']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['15', '53']</t>
+  </si>
+  <si>
+    <t>['29', '36', '45+4']</t>
+  </si>
+  <si>
+    <t>['28', '60']</t>
+  </si>
+  <si>
+    <t>['4', '45', '87']</t>
+  </si>
+  <si>
+    <t>['6', '9', '13']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['45+4']</t>
   </si>
   <si>
@@ -389,6 +407,30 @@
   </si>
   <si>
     <t>['34', '36', '54']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['6', '77']</t>
+  </si>
+  <si>
+    <t>['17', '32']</t>
+  </si>
+  <si>
+    <t>['29', '56']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['5', '69']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1949,7 +1991,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2140,7 +2182,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2331,7 +2373,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2522,7 +2564,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2994,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3095,7 +3137,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3185,7 +3227,7 @@
         <v>3</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3373,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>0</v>
@@ -3477,7 +3519,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3564,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT15">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3668,7 +3710,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -3758,7 +3800,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3946,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4050,7 +4092,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4137,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT18">
         <v>2</v>
@@ -4328,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -4432,7 +4474,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4519,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4623,7 +4665,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -4814,7 +4856,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5005,7 +5047,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5387,7 +5429,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5578,7 +5620,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5769,7 +5811,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6533,7 +6575,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6675,6 +6717,1725 @@
       </c>
       <c r="BK31">
         <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6792842</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45163.58333333334</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q32">
+        <v>9</v>
+      </c>
+      <c r="R32">
+        <v>11</v>
+      </c>
+      <c r="S32">
+        <v>20</v>
+      </c>
+      <c r="T32">
+        <v>2.3</v>
+      </c>
+      <c r="U32">
+        <v>2.25</v>
+      </c>
+      <c r="V32">
+        <v>4.1</v>
+      </c>
+      <c r="W32">
+        <v>1.32</v>
+      </c>
+      <c r="X32">
+        <v>3.1</v>
+      </c>
+      <c r="Y32">
+        <v>2.5</v>
+      </c>
+      <c r="Z32">
+        <v>1.47</v>
+      </c>
+      <c r="AA32">
+        <v>6</v>
+      </c>
+      <c r="AB32">
+        <v>1.11</v>
+      </c>
+      <c r="AC32">
+        <v>1.77</v>
+      </c>
+      <c r="AD32">
+        <v>3.55</v>
+      </c>
+      <c r="AE32">
+        <v>4.05</v>
+      </c>
+      <c r="AF32">
+        <v>1.04</v>
+      </c>
+      <c r="AG32">
+        <v>10</v>
+      </c>
+      <c r="AH32">
+        <v>1.25</v>
+      </c>
+      <c r="AI32">
+        <v>3.75</v>
+      </c>
+      <c r="AJ32">
+        <v>1.67</v>
+      </c>
+      <c r="AK32">
+        <v>2</v>
+      </c>
+      <c r="AL32">
+        <v>1.68</v>
+      </c>
+      <c r="AM32">
+        <v>2.05</v>
+      </c>
+      <c r="AN32">
+        <v>1.23</v>
+      </c>
+      <c r="AO32">
+        <v>1.25</v>
+      </c>
+      <c r="AP32">
+        <v>1.95</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0.5</v>
+      </c>
+      <c r="AT32">
+        <v>0.5</v>
+      </c>
+      <c r="AU32">
+        <v>1.69</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>2.69</v>
+      </c>
+      <c r="AX32">
+        <v>1.83</v>
+      </c>
+      <c r="AY32">
+        <v>6.5</v>
+      </c>
+      <c r="AZ32">
+        <v>2.5</v>
+      </c>
+      <c r="BA32">
+        <v>1.32</v>
+      </c>
+      <c r="BB32">
+        <v>1.65</v>
+      </c>
+      <c r="BC32">
+        <v>2.05</v>
+      </c>
+      <c r="BD32">
+        <v>2.63</v>
+      </c>
+      <c r="BE32">
+        <v>3.65</v>
+      </c>
+      <c r="BF32">
+        <v>4</v>
+      </c>
+      <c r="BG32">
+        <v>8</v>
+      </c>
+      <c r="BH32">
+        <v>4</v>
+      </c>
+      <c r="BI32">
+        <v>5</v>
+      </c>
+      <c r="BJ32">
+        <v>8</v>
+      </c>
+      <c r="BK32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6792841</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45164.375</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>110</v>
+      </c>
+      <c r="P33" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>11</v>
+      </c>
+      <c r="T33">
+        <v>2.9</v>
+      </c>
+      <c r="U33">
+        <v>2.15</v>
+      </c>
+      <c r="V33">
+        <v>3.2</v>
+      </c>
+      <c r="W33">
+        <v>1.35</v>
+      </c>
+      <c r="X33">
+        <v>2.95</v>
+      </c>
+      <c r="Y33">
+        <v>2.6</v>
+      </c>
+      <c r="Z33">
+        <v>1.43</v>
+      </c>
+      <c r="AA33">
+        <v>6.5</v>
+      </c>
+      <c r="AB33">
+        <v>1.1</v>
+      </c>
+      <c r="AC33">
+        <v>2.37</v>
+      </c>
+      <c r="AD33">
+        <v>3.25</v>
+      </c>
+      <c r="AE33">
+        <v>2.71</v>
+      </c>
+      <c r="AF33">
+        <v>1.05</v>
+      </c>
+      <c r="AG33">
+        <v>9</v>
+      </c>
+      <c r="AH33">
+        <v>1.25</v>
+      </c>
+      <c r="AI33">
+        <v>3.75</v>
+      </c>
+      <c r="AJ33">
+        <v>1.88</v>
+      </c>
+      <c r="AK33">
+        <v>2</v>
+      </c>
+      <c r="AL33">
+        <v>1.65</v>
+      </c>
+      <c r="AM33">
+        <v>2.1</v>
+      </c>
+      <c r="AN33">
+        <v>1.44</v>
+      </c>
+      <c r="AO33">
+        <v>1.28</v>
+      </c>
+      <c r="AP33">
+        <v>1.53</v>
+      </c>
+      <c r="AQ33">
+        <v>1</v>
+      </c>
+      <c r="AR33">
+        <v>1</v>
+      </c>
+      <c r="AS33">
+        <v>1</v>
+      </c>
+      <c r="AT33">
+        <v>1</v>
+      </c>
+      <c r="AU33">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AV33">
+        <v>0.91</v>
+      </c>
+      <c r="AW33">
+        <v>1.85</v>
+      </c>
+      <c r="AX33">
+        <v>1.88</v>
+      </c>
+      <c r="AY33">
+        <v>7.5</v>
+      </c>
+      <c r="AZ33">
+        <v>2.3</v>
+      </c>
+      <c r="BA33">
+        <v>1.17</v>
+      </c>
+      <c r="BB33">
+        <v>1.31</v>
+      </c>
+      <c r="BC33">
+        <v>1.57</v>
+      </c>
+      <c r="BD33">
+        <v>1.91</v>
+      </c>
+      <c r="BE33">
+        <v>2.4</v>
+      </c>
+      <c r="BF33">
+        <v>9</v>
+      </c>
+      <c r="BG33">
+        <v>4</v>
+      </c>
+      <c r="BH33">
+        <v>4</v>
+      </c>
+      <c r="BI33">
+        <v>4</v>
+      </c>
+      <c r="BJ33">
+        <v>13</v>
+      </c>
+      <c r="BK33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6792840</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45164.375</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>12</v>
+      </c>
+      <c r="T34">
+        <v>3.36</v>
+      </c>
+      <c r="U34">
+        <v>2.21</v>
+      </c>
+      <c r="V34">
+        <v>2.9</v>
+      </c>
+      <c r="W34">
+        <v>1.34</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>2.5</v>
+      </c>
+      <c r="Z34">
+        <v>1.46</v>
+      </c>
+      <c r="AA34">
+        <v>6.25</v>
+      </c>
+      <c r="AB34">
+        <v>1.1</v>
+      </c>
+      <c r="AC34">
+        <v>2.67</v>
+      </c>
+      <c r="AD34">
+        <v>3.3</v>
+      </c>
+      <c r="AE34">
+        <v>2.38</v>
+      </c>
+      <c r="AF34">
+        <v>1.04</v>
+      </c>
+      <c r="AG34">
+        <v>10</v>
+      </c>
+      <c r="AH34">
+        <v>1.25</v>
+      </c>
+      <c r="AI34">
+        <v>3.75</v>
+      </c>
+      <c r="AJ34">
+        <v>1.54</v>
+      </c>
+      <c r="AK34">
+        <v>2.4</v>
+      </c>
+      <c r="AL34">
+        <v>1.59</v>
+      </c>
+      <c r="AM34">
+        <v>2.29</v>
+      </c>
+      <c r="AN34">
+        <v>1.53</v>
+      </c>
+      <c r="AO34">
+        <v>1.27</v>
+      </c>
+      <c r="AP34">
+        <v>1.42</v>
+      </c>
+      <c r="AQ34">
+        <v>3</v>
+      </c>
+      <c r="AR34">
+        <v>3</v>
+      </c>
+      <c r="AS34">
+        <v>3</v>
+      </c>
+      <c r="AT34">
+        <v>1.5</v>
+      </c>
+      <c r="AU34">
+        <v>1.82</v>
+      </c>
+      <c r="AV34">
+        <v>1.41</v>
+      </c>
+      <c r="AW34">
+        <v>3.23</v>
+      </c>
+      <c r="AX34">
+        <v>2.05</v>
+      </c>
+      <c r="AY34">
+        <v>7</v>
+      </c>
+      <c r="AZ34">
+        <v>2.15</v>
+      </c>
+      <c r="BA34">
+        <v>1.27</v>
+      </c>
+      <c r="BB34">
+        <v>1.57</v>
+      </c>
+      <c r="BC34">
+        <v>1.91</v>
+      </c>
+      <c r="BD34">
+        <v>2.38</v>
+      </c>
+      <c r="BE34">
+        <v>3.28</v>
+      </c>
+      <c r="BF34">
+        <v>5</v>
+      </c>
+      <c r="BG34">
+        <v>6</v>
+      </c>
+      <c r="BH34">
+        <v>4</v>
+      </c>
+      <c r="BI34">
+        <v>5</v>
+      </c>
+      <c r="BJ34">
+        <v>9</v>
+      </c>
+      <c r="BK34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6792837</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45164.375</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>87</v>
+      </c>
+      <c r="P35" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>9</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <v>4.1</v>
+      </c>
+      <c r="U35">
+        <v>2.25</v>
+      </c>
+      <c r="V35">
+        <v>2.3</v>
+      </c>
+      <c r="W35">
+        <v>1.31</v>
+      </c>
+      <c r="X35">
+        <v>3.2</v>
+      </c>
+      <c r="Y35">
+        <v>2.4</v>
+      </c>
+      <c r="Z35">
+        <v>1.5</v>
+      </c>
+      <c r="AA35">
+        <v>5.75</v>
+      </c>
+      <c r="AB35">
+        <v>1.12</v>
+      </c>
+      <c r="AC35">
+        <v>3.4</v>
+      </c>
+      <c r="AD35">
+        <v>3.55</v>
+      </c>
+      <c r="AE35">
+        <v>1.91</v>
+      </c>
+      <c r="AF35">
+        <v>1.04</v>
+      </c>
+      <c r="AG35">
+        <v>10</v>
+      </c>
+      <c r="AH35">
+        <v>1.22</v>
+      </c>
+      <c r="AI35">
+        <v>4</v>
+      </c>
+      <c r="AJ35">
+        <v>1.62</v>
+      </c>
+      <c r="AK35">
+        <v>2.23</v>
+      </c>
+      <c r="AL35">
+        <v>1.65</v>
+      </c>
+      <c r="AM35">
+        <v>2.1</v>
+      </c>
+      <c r="AN35">
+        <v>1.95</v>
+      </c>
+      <c r="AO35">
+        <v>1.25</v>
+      </c>
+      <c r="AP35">
+        <v>1.24</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>1.5</v>
+      </c>
+      <c r="AT35">
+        <v>1.5</v>
+      </c>
+      <c r="AU35">
+        <v>1.71</v>
+      </c>
+      <c r="AV35">
+        <v>1.28</v>
+      </c>
+      <c r="AW35">
+        <v>2.99</v>
+      </c>
+      <c r="AX35">
+        <v>2.42</v>
+      </c>
+      <c r="AY35">
+        <v>8.5</v>
+      </c>
+      <c r="AZ35">
+        <v>1.79</v>
+      </c>
+      <c r="BA35">
+        <v>1.27</v>
+      </c>
+      <c r="BB35">
+        <v>1.57</v>
+      </c>
+      <c r="BC35">
+        <v>1.78</v>
+      </c>
+      <c r="BD35">
+        <v>2.37</v>
+      </c>
+      <c r="BE35">
+        <v>2.9</v>
+      </c>
+      <c r="BF35">
+        <v>5</v>
+      </c>
+      <c r="BG35">
+        <v>10</v>
+      </c>
+      <c r="BH35">
+        <v>6</v>
+      </c>
+      <c r="BI35">
+        <v>7</v>
+      </c>
+      <c r="BJ35">
+        <v>11</v>
+      </c>
+      <c r="BK35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>6792836</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45164.375</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36" t="s">
+        <v>112</v>
+      </c>
+      <c r="P36" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>4</v>
+      </c>
+      <c r="T36">
+        <v>3.1</v>
+      </c>
+      <c r="U36">
+        <v>2.15</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>1.35</v>
+      </c>
+      <c r="X36">
+        <v>2.9</v>
+      </c>
+      <c r="Y36">
+        <v>2.6</v>
+      </c>
+      <c r="Z36">
+        <v>1.44</v>
+      </c>
+      <c r="AA36">
+        <v>6.5</v>
+      </c>
+      <c r="AB36">
+        <v>1.1</v>
+      </c>
+      <c r="AC36">
+        <v>2.37</v>
+      </c>
+      <c r="AD36">
+        <v>3.3</v>
+      </c>
+      <c r="AE36">
+        <v>2.65</v>
+      </c>
+      <c r="AF36">
+        <v>1.05</v>
+      </c>
+      <c r="AG36">
+        <v>9</v>
+      </c>
+      <c r="AH36">
+        <v>1.25</v>
+      </c>
+      <c r="AI36">
+        <v>3.75</v>
+      </c>
+      <c r="AJ36">
+        <v>1.7</v>
+      </c>
+      <c r="AK36">
+        <v>2.08</v>
+      </c>
+      <c r="AL36">
+        <v>1.63</v>
+      </c>
+      <c r="AM36">
+        <v>2.1</v>
+      </c>
+      <c r="AN36">
+        <v>1.5</v>
+      </c>
+      <c r="AO36">
+        <v>1.3</v>
+      </c>
+      <c r="AP36">
+        <v>1.44</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>1.5</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>2.22</v>
+      </c>
+      <c r="AV36">
+        <v>0.68</v>
+      </c>
+      <c r="AW36">
+        <v>2.9</v>
+      </c>
+      <c r="AX36">
+        <v>2.08</v>
+      </c>
+      <c r="AY36">
+        <v>7.7</v>
+      </c>
+      <c r="AZ36">
+        <v>2.05</v>
+      </c>
+      <c r="BA36">
+        <v>1.27</v>
+      </c>
+      <c r="BB36">
+        <v>1.43</v>
+      </c>
+      <c r="BC36">
+        <v>1.86</v>
+      </c>
+      <c r="BD36">
+        <v>2.13</v>
+      </c>
+      <c r="BE36">
+        <v>2.63</v>
+      </c>
+      <c r="BF36">
+        <v>8</v>
+      </c>
+      <c r="BG36">
+        <v>5</v>
+      </c>
+      <c r="BH36">
+        <v>4</v>
+      </c>
+      <c r="BI36">
+        <v>1</v>
+      </c>
+      <c r="BJ36">
+        <v>12</v>
+      </c>
+      <c r="BK36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>6792834</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45164.375</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>113</v>
+      </c>
+      <c r="P37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37">
+        <v>7</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <v>13</v>
+      </c>
+      <c r="T37">
+        <v>2.8</v>
+      </c>
+      <c r="U37">
+        <v>2.2</v>
+      </c>
+      <c r="V37">
+        <v>3.1</v>
+      </c>
+      <c r="W37">
+        <v>1.31</v>
+      </c>
+      <c r="X37">
+        <v>3.2</v>
+      </c>
+      <c r="Y37">
+        <v>2.4</v>
+      </c>
+      <c r="Z37">
+        <v>1.49</v>
+      </c>
+      <c r="AA37">
+        <v>5.75</v>
+      </c>
+      <c r="AB37">
+        <v>1.12</v>
+      </c>
+      <c r="AC37">
+        <v>2.53</v>
+      </c>
+      <c r="AD37">
+        <v>3.25</v>
+      </c>
+      <c r="AE37">
+        <v>2.53</v>
+      </c>
+      <c r="AF37">
+        <v>1.04</v>
+      </c>
+      <c r="AG37">
+        <v>10</v>
+      </c>
+      <c r="AH37">
+        <v>1.22</v>
+      </c>
+      <c r="AI37">
+        <v>4</v>
+      </c>
+      <c r="AJ37">
+        <v>1.88</v>
+      </c>
+      <c r="AK37">
+        <v>2</v>
+      </c>
+      <c r="AL37">
+        <v>1.58</v>
+      </c>
+      <c r="AM37">
+        <v>2.2</v>
+      </c>
+      <c r="AN37">
+        <v>1.43</v>
+      </c>
+      <c r="AO37">
+        <v>1.27</v>
+      </c>
+      <c r="AP37">
+        <v>1.57</v>
+      </c>
+      <c r="AQ37">
+        <v>3</v>
+      </c>
+      <c r="AR37">
+        <v>1</v>
+      </c>
+      <c r="AS37">
+        <v>2</v>
+      </c>
+      <c r="AT37">
+        <v>1</v>
+      </c>
+      <c r="AU37">
+        <v>1.91</v>
+      </c>
+      <c r="AV37">
+        <v>1.36</v>
+      </c>
+      <c r="AW37">
+        <v>3.27</v>
+      </c>
+      <c r="AX37">
+        <v>2</v>
+      </c>
+      <c r="AY37">
+        <v>8.1</v>
+      </c>
+      <c r="AZ37">
+        <v>2.1</v>
+      </c>
+      <c r="BA37">
+        <v>1.13</v>
+      </c>
+      <c r="BB37">
+        <v>1.27</v>
+      </c>
+      <c r="BC37">
+        <v>1.54</v>
+      </c>
+      <c r="BD37">
+        <v>1.74</v>
+      </c>
+      <c r="BE37">
+        <v>2.14</v>
+      </c>
+      <c r="BF37">
+        <v>6</v>
+      </c>
+      <c r="BG37">
+        <v>5</v>
+      </c>
+      <c r="BH37">
+        <v>4</v>
+      </c>
+      <c r="BI37">
+        <v>5</v>
+      </c>
+      <c r="BJ37">
+        <v>10</v>
+      </c>
+      <c r="BK37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>6792835</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45164.47916666666</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>114</v>
+      </c>
+      <c r="P38" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>8</v>
+      </c>
+      <c r="S38">
+        <v>9</v>
+      </c>
+      <c r="T38">
+        <v>2.4</v>
+      </c>
+      <c r="U38">
+        <v>2.24</v>
+      </c>
+      <c r="V38">
+        <v>4.36</v>
+      </c>
+      <c r="W38">
+        <v>1.33</v>
+      </c>
+      <c r="X38">
+        <v>3</v>
+      </c>
+      <c r="Y38">
+        <v>2.45</v>
+      </c>
+      <c r="Z38">
+        <v>1.47</v>
+      </c>
+      <c r="AA38">
+        <v>6</v>
+      </c>
+      <c r="AB38">
+        <v>1.11</v>
+      </c>
+      <c r="AC38">
+        <v>2.15</v>
+      </c>
+      <c r="AD38">
+        <v>3.4</v>
+      </c>
+      <c r="AE38">
+        <v>3</v>
+      </c>
+      <c r="AF38">
+        <v>1.04</v>
+      </c>
+      <c r="AG38">
+        <v>10</v>
+      </c>
+      <c r="AH38">
+        <v>1.25</v>
+      </c>
+      <c r="AI38">
+        <v>3.75</v>
+      </c>
+      <c r="AJ38">
+        <v>1.67</v>
+      </c>
+      <c r="AK38">
+        <v>2.05</v>
+      </c>
+      <c r="AL38">
+        <v>1.65</v>
+      </c>
+      <c r="AM38">
+        <v>2.18</v>
+      </c>
+      <c r="AN38">
+        <v>1.24</v>
+      </c>
+      <c r="AO38">
+        <v>1.25</v>
+      </c>
+      <c r="AP38">
+        <v>1.87</v>
+      </c>
+      <c r="AQ38">
+        <v>3</v>
+      </c>
+      <c r="AR38">
+        <v>3</v>
+      </c>
+      <c r="AS38">
+        <v>3</v>
+      </c>
+      <c r="AT38">
+        <v>1.5</v>
+      </c>
+      <c r="AU38">
+        <v>0.83</v>
+      </c>
+      <c r="AV38">
+        <v>1.92</v>
+      </c>
+      <c r="AW38">
+        <v>2.75</v>
+      </c>
+      <c r="AX38">
+        <v>1.7</v>
+      </c>
+      <c r="AY38">
+        <v>7</v>
+      </c>
+      <c r="AZ38">
+        <v>2.7</v>
+      </c>
+      <c r="BA38">
+        <v>1.19</v>
+      </c>
+      <c r="BB38">
+        <v>1.33</v>
+      </c>
+      <c r="BC38">
+        <v>1.65</v>
+      </c>
+      <c r="BD38">
+        <v>2</v>
+      </c>
+      <c r="BE38">
+        <v>2.5</v>
+      </c>
+      <c r="BF38">
+        <v>8</v>
+      </c>
+      <c r="BG38">
+        <v>6</v>
+      </c>
+      <c r="BH38">
+        <v>4</v>
+      </c>
+      <c r="BI38">
+        <v>9</v>
+      </c>
+      <c r="BJ38">
+        <v>12</v>
+      </c>
+      <c r="BK38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>6792838</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45165.35416666666</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>89</v>
+      </c>
+      <c r="P39" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>8</v>
+      </c>
+      <c r="S39">
+        <v>13</v>
+      </c>
+      <c r="T39">
+        <v>2.3</v>
+      </c>
+      <c r="U39">
+        <v>2.3</v>
+      </c>
+      <c r="V39">
+        <v>3.9</v>
+      </c>
+      <c r="W39">
+        <v>1.3</v>
+      </c>
+      <c r="X39">
+        <v>3.4</v>
+      </c>
+      <c r="Y39">
+        <v>2.38</v>
+      </c>
+      <c r="Z39">
+        <v>1.53</v>
+      </c>
+      <c r="AA39">
+        <v>5</v>
+      </c>
+      <c r="AB39">
+        <v>1.14</v>
+      </c>
+      <c r="AC39">
+        <v>1.8</v>
+      </c>
+      <c r="AD39">
+        <v>3.6</v>
+      </c>
+      <c r="AE39">
+        <v>3.75</v>
+      </c>
+      <c r="AF39">
+        <v>1.04</v>
+      </c>
+      <c r="AG39">
+        <v>10</v>
+      </c>
+      <c r="AH39">
+        <v>1.22</v>
+      </c>
+      <c r="AI39">
+        <v>4</v>
+      </c>
+      <c r="AJ39">
+        <v>1.65</v>
+      </c>
+      <c r="AK39">
+        <v>2.1</v>
+      </c>
+      <c r="AL39">
+        <v>1.62</v>
+      </c>
+      <c r="AM39">
+        <v>2.2</v>
+      </c>
+      <c r="AN39">
+        <v>1.22</v>
+      </c>
+      <c r="AO39">
+        <v>1.29</v>
+      </c>
+      <c r="AP39">
+        <v>1.85</v>
+      </c>
+      <c r="AQ39">
+        <v>3</v>
+      </c>
+      <c r="AR39">
+        <v>3</v>
+      </c>
+      <c r="AS39">
+        <v>2</v>
+      </c>
+      <c r="AT39">
+        <v>2</v>
+      </c>
+      <c r="AU39">
+        <v>1.31</v>
+      </c>
+      <c r="AV39">
+        <v>1.2</v>
+      </c>
+      <c r="AW39">
+        <v>2.51</v>
+      </c>
+      <c r="AX39">
+        <v>1.76</v>
+      </c>
+      <c r="AY39">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ39">
+        <v>2.4</v>
+      </c>
+      <c r="BA39">
+        <v>1.41</v>
+      </c>
+      <c r="BB39">
+        <v>1.75</v>
+      </c>
+      <c r="BC39">
+        <v>2.3</v>
+      </c>
+      <c r="BD39">
+        <v>3.2</v>
+      </c>
+      <c r="BE39">
+        <v>4.8</v>
+      </c>
+      <c r="BF39">
+        <v>5</v>
+      </c>
+      <c r="BG39">
+        <v>5</v>
+      </c>
+      <c r="BH39">
+        <v>6</v>
+      </c>
+      <c r="BI39">
+        <v>7</v>
+      </c>
+      <c r="BJ39">
+        <v>11</v>
+      </c>
+      <c r="BK39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6792839</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45165.47916666666</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40" t="s">
+        <v>115</v>
+      </c>
+      <c r="P40" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>2.2</v>
+      </c>
+      <c r="U40">
+        <v>2.3</v>
+      </c>
+      <c r="V40">
+        <v>4.2</v>
+      </c>
+      <c r="W40">
+        <v>1.3</v>
+      </c>
+      <c r="X40">
+        <v>3.4</v>
+      </c>
+      <c r="Y40">
+        <v>2.38</v>
+      </c>
+      <c r="Z40">
+        <v>1.53</v>
+      </c>
+      <c r="AA40">
+        <v>5</v>
+      </c>
+      <c r="AB40">
+        <v>1.14</v>
+      </c>
+      <c r="AC40">
+        <v>1.78</v>
+      </c>
+      <c r="AD40">
+        <v>3.84</v>
+      </c>
+      <c r="AE40">
+        <v>4.03</v>
+      </c>
+      <c r="AF40">
+        <v>1.04</v>
+      </c>
+      <c r="AG40">
+        <v>10</v>
+      </c>
+      <c r="AH40">
+        <v>1.22</v>
+      </c>
+      <c r="AI40">
+        <v>4</v>
+      </c>
+      <c r="AJ40">
+        <v>1.65</v>
+      </c>
+      <c r="AK40">
+        <v>2.12</v>
+      </c>
+      <c r="AL40">
+        <v>1.67</v>
+      </c>
+      <c r="AM40">
+        <v>2.1</v>
+      </c>
+      <c r="AN40">
+        <v>1.2</v>
+      </c>
+      <c r="AO40">
+        <v>1.25</v>
+      </c>
+      <c r="AP40">
+        <v>2</v>
+      </c>
+      <c r="AQ40">
+        <v>1</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>2</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0.76</v>
+      </c>
+      <c r="AV40">
+        <v>1.18</v>
+      </c>
+      <c r="AW40">
+        <v>1.94</v>
+      </c>
+      <c r="AX40">
+        <v>1.67</v>
+      </c>
+      <c r="AY40">
+        <v>8.9</v>
+      </c>
+      <c r="AZ40">
+        <v>2.6</v>
+      </c>
+      <c r="BA40">
+        <v>1.2</v>
+      </c>
+      <c r="BB40">
+        <v>1.48</v>
+      </c>
+      <c r="BC40">
+        <v>1.76</v>
+      </c>
+      <c r="BD40">
+        <v>2.21</v>
+      </c>
+      <c r="BE40">
+        <v>2.49</v>
+      </c>
+      <c r="BF40">
+        <v>3</v>
+      </c>
+      <c r="BG40">
+        <v>3</v>
+      </c>
+      <c r="BH40">
+        <v>2</v>
+      </c>
+      <c r="BI40">
+        <v>5</v>
+      </c>
+      <c r="BJ40">
+        <v>5</v>
+      </c>
+      <c r="BK40">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>['6', '9', '13']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
   <si>
     <t>['69']</t>
@@ -792,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK40"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1039,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2182,7 +2185,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2373,7 +2376,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2564,7 +2567,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3137,7 +3140,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3519,7 +3522,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3710,7 +3713,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4092,7 +4095,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4474,7 +4477,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4665,7 +4668,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -4752,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>1</v>
@@ -4856,7 +4859,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5047,7 +5050,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5429,7 +5432,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5620,7 +5623,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5811,7 +5814,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6575,7 +6578,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6766,7 +6769,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -6957,7 +6960,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7148,7 +7151,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7339,7 +7342,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7530,7 +7533,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7721,7 +7724,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8103,7 +8106,7 @@
         <v>89</v>
       </c>
       <c r="P39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8294,7 +8297,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -8420,22 +8423,213 @@
         <v>2.49</v>
       </c>
       <c r="BF40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH40">
         <v>2</v>
       </c>
       <c r="BI40">
+        <v>2</v>
+      </c>
+      <c r="BJ40">
+        <v>8</v>
+      </c>
+      <c r="BK40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>6792833</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45165.60416666666</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>116</v>
+      </c>
+      <c r="P41" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
         <v>5</v>
       </c>
-      <c r="BJ40">
-        <v>5</v>
-      </c>
-      <c r="BK40">
+      <c r="T41">
+        <v>2.87</v>
+      </c>
+      <c r="U41">
+        <v>2.15</v>
+      </c>
+      <c r="V41">
+        <v>3.2</v>
+      </c>
+      <c r="W41">
+        <v>1.35</v>
+      </c>
+      <c r="X41">
+        <v>2.95</v>
+      </c>
+      <c r="Y41">
+        <v>2.6</v>
+      </c>
+      <c r="Z41">
+        <v>1.43</v>
+      </c>
+      <c r="AA41">
+        <v>6.5</v>
+      </c>
+      <c r="AB41">
+        <v>1.1</v>
+      </c>
+      <c r="AC41">
+        <v>2.39</v>
+      </c>
+      <c r="AD41">
+        <v>3.42</v>
+      </c>
+      <c r="AE41">
+        <v>2.74</v>
+      </c>
+      <c r="AF41">
+        <v>1.05</v>
+      </c>
+      <c r="AG41">
+        <v>9</v>
+      </c>
+      <c r="AH41">
+        <v>1.25</v>
+      </c>
+      <c r="AI41">
+        <v>3.75</v>
+      </c>
+      <c r="AJ41">
+        <v>1.73</v>
+      </c>
+      <c r="AK41">
+        <v>1.92</v>
+      </c>
+      <c r="AL41">
+        <v>1.65</v>
+      </c>
+      <c r="AM41">
+        <v>2.1</v>
+      </c>
+      <c r="AN41">
+        <v>1.43</v>
+      </c>
+      <c r="AO41">
+        <v>1.28</v>
+      </c>
+      <c r="AP41">
+        <v>1.55</v>
+      </c>
+      <c r="AQ41">
+        <v>1</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>2</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>1.22</v>
+      </c>
+      <c r="AV41">
+        <v>1.62</v>
+      </c>
+      <c r="AW41">
+        <v>2.84</v>
+      </c>
+      <c r="AX41">
+        <v>2.06</v>
+      </c>
+      <c r="AY41">
         <v>8</v>
+      </c>
+      <c r="AZ41">
+        <v>2.02</v>
+      </c>
+      <c r="BA41">
+        <v>1.49</v>
+      </c>
+      <c r="BB41">
+        <v>2</v>
+      </c>
+      <c r="BC41">
+        <v>2.55</v>
+      </c>
+      <c r="BD41">
+        <v>3.6</v>
+      </c>
+      <c r="BE41">
+        <v>5.3</v>
+      </c>
+      <c r="BF41">
+        <v>9</v>
+      </c>
+      <c r="BG41">
+        <v>6</v>
+      </c>
+      <c r="BH41">
+        <v>7</v>
+      </c>
+      <c r="BI41">
+        <v>8</v>
+      </c>
+      <c r="BJ41">
+        <v>16</v>
+      </c>
+      <c r="BK41">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,24 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['37', '58']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['62', '90']</t>
+  </si>
+  <si>
+    <t>['70', '75', '90+4']</t>
+  </si>
+  <si>
+    <t>['40', '46', '64', '76']</t>
+  </si>
+  <si>
+    <t>['30', '76']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -434,6 +452,21 @@
   </si>
   <si>
     <t>['5', '69']</t>
+  </si>
+  <si>
+    <t>['45+2', '54', '77']</t>
+  </si>
+  <si>
+    <t>['51', '90+4']</t>
+  </si>
+  <si>
+    <t>['85', '87']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1039,7 +1072,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1126,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1511,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1699,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1890,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2081,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2185,7 +2218,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2376,7 +2409,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2463,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -2567,7 +2600,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2654,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3140,7 +3173,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3522,7 +3555,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3713,7 +3746,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -3800,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT16">
         <v>1.5</v>
@@ -4095,7 +4128,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4185,7 +4218,7 @@
         <v>2</v>
       </c>
       <c r="AT18">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4477,7 +4510,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4564,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
         <v>2</v>
@@ -4668,7 +4701,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -4758,7 +4791,7 @@
         <v>2</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -4859,7 +4892,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -4946,10 +4979,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU22">
         <v>1.02</v>
@@ -5050,7 +5083,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5137,10 +5170,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT23">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.22</v>
@@ -5328,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT24">
         <v>0</v>
@@ -5432,7 +5465,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5519,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT25">
         <v>0</v>
@@ -5623,7 +5656,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5713,7 +5746,7 @@
         <v>3</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>1.6</v>
@@ -5814,7 +5847,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -5904,7 +5937,7 @@
         <v>3</v>
       </c>
       <c r="AT27">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU27">
         <v>1.42</v>
@@ -6095,7 +6128,7 @@
         <v>2</v>
       </c>
       <c r="AT28">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>1.09</v>
@@ -6283,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT29">
         <v>1</v>
@@ -6474,10 +6507,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU30">
         <v>2.19</v>
@@ -6578,7 +6611,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6665,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT31">
         <v>0</v>
@@ -6769,7 +6802,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -6960,7 +6993,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7050,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU33">
         <v>0.9399999999999999</v>
@@ -7151,7 +7184,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7342,7 +7375,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7533,7 +7566,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7620,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -7724,7 +7757,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8106,7 +8139,7 @@
         <v>89</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8297,7 +8330,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -8630,6 +8663,1725 @@
       </c>
       <c r="BK41">
         <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>6792847</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45170.58333333334</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>117</v>
+      </c>
+      <c r="P42" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>8</v>
+      </c>
+      <c r="T42">
+        <v>2.22</v>
+      </c>
+      <c r="U42">
+        <v>2.32</v>
+      </c>
+      <c r="V42">
+        <v>4.5</v>
+      </c>
+      <c r="W42">
+        <v>1.3</v>
+      </c>
+      <c r="X42">
+        <v>3.25</v>
+      </c>
+      <c r="Y42">
+        <v>2.4</v>
+      </c>
+      <c r="Z42">
+        <v>1.51</v>
+      </c>
+      <c r="AA42">
+        <v>5.45</v>
+      </c>
+      <c r="AB42">
+        <v>1.12</v>
+      </c>
+      <c r="AC42">
+        <v>1.6</v>
+      </c>
+      <c r="AD42">
+        <v>3.92</v>
+      </c>
+      <c r="AE42">
+        <v>4.35</v>
+      </c>
+      <c r="AF42">
+        <v>1.02</v>
+      </c>
+      <c r="AG42">
+        <v>12</v>
+      </c>
+      <c r="AH42">
+        <v>1.17</v>
+      </c>
+      <c r="AI42">
+        <v>4.7</v>
+      </c>
+      <c r="AJ42">
+        <v>1.59</v>
+      </c>
+      <c r="AK42">
+        <v>2.21</v>
+      </c>
+      <c r="AL42">
+        <v>1.64</v>
+      </c>
+      <c r="AM42">
+        <v>2.12</v>
+      </c>
+      <c r="AN42">
+        <v>1.16</v>
+      </c>
+      <c r="AO42">
+        <v>1.25</v>
+      </c>
+      <c r="AP42">
+        <v>2.15</v>
+      </c>
+      <c r="AQ42">
+        <v>1.5</v>
+      </c>
+      <c r="AR42">
+        <v>1</v>
+      </c>
+      <c r="AS42">
+        <v>2</v>
+      </c>
+      <c r="AT42">
+        <v>0.67</v>
+      </c>
+      <c r="AU42">
+        <v>2.08</v>
+      </c>
+      <c r="AV42">
+        <v>0.9</v>
+      </c>
+      <c r="AW42">
+        <v>2.98</v>
+      </c>
+      <c r="AX42">
+        <v>1.45</v>
+      </c>
+      <c r="AY42">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ42">
+        <v>3.18</v>
+      </c>
+      <c r="BA42">
+        <v>1.14</v>
+      </c>
+      <c r="BB42">
+        <v>1.28</v>
+      </c>
+      <c r="BC42">
+        <v>1.51</v>
+      </c>
+      <c r="BD42">
+        <v>2</v>
+      </c>
+      <c r="BE42">
+        <v>2.45</v>
+      </c>
+      <c r="BF42">
+        <v>5</v>
+      </c>
+      <c r="BG42">
+        <v>6</v>
+      </c>
+      <c r="BH42">
+        <v>5</v>
+      </c>
+      <c r="BI42">
+        <v>8</v>
+      </c>
+      <c r="BJ42">
+        <v>10</v>
+      </c>
+      <c r="BK42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>6792848</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45171.375</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="O43" t="s">
+        <v>118</v>
+      </c>
+      <c r="P43" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q43">
+        <v>7</v>
+      </c>
+      <c r="R43">
+        <v>6</v>
+      </c>
+      <c r="S43">
+        <v>13</v>
+      </c>
+      <c r="T43">
+        <v>2.6</v>
+      </c>
+      <c r="U43">
+        <v>2.2</v>
+      </c>
+      <c r="V43">
+        <v>3.8</v>
+      </c>
+      <c r="W43">
+        <v>1.33</v>
+      </c>
+      <c r="X43">
+        <v>3</v>
+      </c>
+      <c r="Y43">
+        <v>2.5</v>
+      </c>
+      <c r="Z43">
+        <v>1.48</v>
+      </c>
+      <c r="AA43">
+        <v>6</v>
+      </c>
+      <c r="AB43">
+        <v>1.11</v>
+      </c>
+      <c r="AC43">
+        <v>2.73</v>
+      </c>
+      <c r="AD43">
+        <v>3.15</v>
+      </c>
+      <c r="AE43">
+        <v>2.39</v>
+      </c>
+      <c r="AF43">
+        <v>1.02</v>
+      </c>
+      <c r="AG43">
+        <v>10</v>
+      </c>
+      <c r="AH43">
+        <v>1.22</v>
+      </c>
+      <c r="AI43">
+        <v>3.8</v>
+      </c>
+      <c r="AJ43">
+        <v>1.73</v>
+      </c>
+      <c r="AK43">
+        <v>2.05</v>
+      </c>
+      <c r="AL43">
+        <v>1.62</v>
+      </c>
+      <c r="AM43">
+        <v>2.2</v>
+      </c>
+      <c r="AN43">
+        <v>1.33</v>
+      </c>
+      <c r="AO43">
+        <v>1.29</v>
+      </c>
+      <c r="AP43">
+        <v>1.75</v>
+      </c>
+      <c r="AQ43">
+        <v>2</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>1.33</v>
+      </c>
+      <c r="AT43">
+        <v>1</v>
+      </c>
+      <c r="AU43">
+        <v>1.89</v>
+      </c>
+      <c r="AV43">
+        <v>1.27</v>
+      </c>
+      <c r="AW43">
+        <v>3.16</v>
+      </c>
+      <c r="AX43">
+        <v>1.75</v>
+      </c>
+      <c r="AY43">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ43">
+        <v>2.42</v>
+      </c>
+      <c r="BA43">
+        <v>1.45</v>
+      </c>
+      <c r="BB43">
+        <v>1.8</v>
+      </c>
+      <c r="BC43">
+        <v>2.4</v>
+      </c>
+      <c r="BD43">
+        <v>3.35</v>
+      </c>
+      <c r="BE43">
+        <v>4.8</v>
+      </c>
+      <c r="BF43">
+        <v>6</v>
+      </c>
+      <c r="BG43">
+        <v>7</v>
+      </c>
+      <c r="BH43">
+        <v>5</v>
+      </c>
+      <c r="BI43">
+        <v>3</v>
+      </c>
+      <c r="BJ43">
+        <v>11</v>
+      </c>
+      <c r="BK43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>6792852</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45171.375</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="T44">
+        <v>2.2</v>
+      </c>
+      <c r="U44">
+        <v>2.2</v>
+      </c>
+      <c r="V44">
+        <v>4.5</v>
+      </c>
+      <c r="W44">
+        <v>1.32</v>
+      </c>
+      <c r="X44">
+        <v>3.1</v>
+      </c>
+      <c r="Y44">
+        <v>2.4</v>
+      </c>
+      <c r="Z44">
+        <v>1.5</v>
+      </c>
+      <c r="AA44">
+        <v>5.75</v>
+      </c>
+      <c r="AB44">
+        <v>1.12</v>
+      </c>
+      <c r="AC44">
+        <v>1.67</v>
+      </c>
+      <c r="AD44">
+        <v>3.5</v>
+      </c>
+      <c r="AE44">
+        <v>4.17</v>
+      </c>
+      <c r="AF44">
+        <v>1.04</v>
+      </c>
+      <c r="AG44">
+        <v>10</v>
+      </c>
+      <c r="AH44">
+        <v>1.2</v>
+      </c>
+      <c r="AI44">
+        <v>4.2</v>
+      </c>
+      <c r="AJ44">
+        <v>1.65</v>
+      </c>
+      <c r="AK44">
+        <v>2.15</v>
+      </c>
+      <c r="AL44">
+        <v>1.66</v>
+      </c>
+      <c r="AM44">
+        <v>2.05</v>
+      </c>
+      <c r="AN44">
+        <v>1.19</v>
+      </c>
+      <c r="AO44">
+        <v>1.25</v>
+      </c>
+      <c r="AP44">
+        <v>2.1</v>
+      </c>
+      <c r="AQ44">
+        <v>3</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>3</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>1.68</v>
+      </c>
+      <c r="AV44">
+        <v>1.29</v>
+      </c>
+      <c r="AW44">
+        <v>2.97</v>
+      </c>
+      <c r="AX44">
+        <v>1.44</v>
+      </c>
+      <c r="AY44">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ44">
+        <v>3.25</v>
+      </c>
+      <c r="BA44">
+        <v>1.18</v>
+      </c>
+      <c r="BB44">
+        <v>1.33</v>
+      </c>
+      <c r="BC44">
+        <v>1.6</v>
+      </c>
+      <c r="BD44">
+        <v>2</v>
+      </c>
+      <c r="BE44">
+        <v>2.7</v>
+      </c>
+      <c r="BF44">
+        <v>6</v>
+      </c>
+      <c r="BG44">
+        <v>2</v>
+      </c>
+      <c r="BH44">
+        <v>10</v>
+      </c>
+      <c r="BI44">
+        <v>3</v>
+      </c>
+      <c r="BJ44">
+        <v>16</v>
+      </c>
+      <c r="BK44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6792850</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45171.375</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>120</v>
+      </c>
+      <c r="P45" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45">
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>2.5</v>
+      </c>
+      <c r="U45">
+        <v>2.25</v>
+      </c>
+      <c r="V45">
+        <v>3.6</v>
+      </c>
+      <c r="W45">
+        <v>1.32</v>
+      </c>
+      <c r="X45">
+        <v>3.1</v>
+      </c>
+      <c r="Y45">
+        <v>2.45</v>
+      </c>
+      <c r="Z45">
+        <v>1.47</v>
+      </c>
+      <c r="AA45">
+        <v>6</v>
+      </c>
+      <c r="AB45">
+        <v>1.11</v>
+      </c>
+      <c r="AC45">
+        <v>2.31</v>
+      </c>
+      <c r="AD45">
+        <v>3.3</v>
+      </c>
+      <c r="AE45">
+        <v>2.76</v>
+      </c>
+      <c r="AF45">
+        <v>1.04</v>
+      </c>
+      <c r="AG45">
+        <v>10</v>
+      </c>
+      <c r="AH45">
+        <v>1.22</v>
+      </c>
+      <c r="AI45">
+        <v>4</v>
+      </c>
+      <c r="AJ45">
+        <v>1.67</v>
+      </c>
+      <c r="AK45">
+        <v>2.15</v>
+      </c>
+      <c r="AL45">
+        <v>1.62</v>
+      </c>
+      <c r="AM45">
+        <v>2.2</v>
+      </c>
+      <c r="AN45">
+        <v>1.26</v>
+      </c>
+      <c r="AO45">
+        <v>1.26</v>
+      </c>
+      <c r="AP45">
+        <v>1.81</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
+        <v>2</v>
+      </c>
+      <c r="AS45">
+        <v>2.33</v>
+      </c>
+      <c r="AT45">
+        <v>1.33</v>
+      </c>
+      <c r="AU45">
+        <v>1.38</v>
+      </c>
+      <c r="AV45">
+        <v>0.82</v>
+      </c>
+      <c r="AW45">
+        <v>2.2</v>
+      </c>
+      <c r="AX45">
+        <v>1.67</v>
+      </c>
+      <c r="AY45">
+        <v>8.6</v>
+      </c>
+      <c r="AZ45">
+        <v>2.57</v>
+      </c>
+      <c r="BA45">
+        <v>1.4</v>
+      </c>
+      <c r="BB45">
+        <v>1.74</v>
+      </c>
+      <c r="BC45">
+        <v>2.28</v>
+      </c>
+      <c r="BD45">
+        <v>3.1</v>
+      </c>
+      <c r="BE45">
+        <v>4.4</v>
+      </c>
+      <c r="BF45">
+        <v>13</v>
+      </c>
+      <c r="BG45">
+        <v>2</v>
+      </c>
+      <c r="BH45">
+        <v>5</v>
+      </c>
+      <c r="BI45">
+        <v>3</v>
+      </c>
+      <c r="BJ45">
+        <v>18</v>
+      </c>
+      <c r="BK45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>6792849</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45171.375</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>87</v>
+      </c>
+      <c r="P46" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46">
+        <v>6</v>
+      </c>
+      <c r="S46">
+        <v>12</v>
+      </c>
+      <c r="T46">
+        <v>2.6</v>
+      </c>
+      <c r="U46">
+        <v>2.25</v>
+      </c>
+      <c r="V46">
+        <v>3.5</v>
+      </c>
+      <c r="W46">
+        <v>1.3</v>
+      </c>
+      <c r="X46">
+        <v>3.25</v>
+      </c>
+      <c r="Y46">
+        <v>2.4</v>
+      </c>
+      <c r="Z46">
+        <v>1.51</v>
+      </c>
+      <c r="AA46">
+        <v>5.45</v>
+      </c>
+      <c r="AB46">
+        <v>1.12</v>
+      </c>
+      <c r="AC46">
+        <v>1.85</v>
+      </c>
+      <c r="AD46">
+        <v>3.3</v>
+      </c>
+      <c r="AE46">
+        <v>3.5</v>
+      </c>
+      <c r="AF46">
+        <v>1.02</v>
+      </c>
+      <c r="AG46">
+        <v>10</v>
+      </c>
+      <c r="AH46">
+        <v>1.2</v>
+      </c>
+      <c r="AI46">
+        <v>4.2</v>
+      </c>
+      <c r="AJ46">
+        <v>1.62</v>
+      </c>
+      <c r="AK46">
+        <v>2.2</v>
+      </c>
+      <c r="AL46">
+        <v>1.55</v>
+      </c>
+      <c r="AM46">
+        <v>2.35</v>
+      </c>
+      <c r="AN46">
+        <v>1.28</v>
+      </c>
+      <c r="AO46">
+        <v>1.2</v>
+      </c>
+      <c r="AP46">
+        <v>1.72</v>
+      </c>
+      <c r="AQ46">
+        <v>1.5</v>
+      </c>
+      <c r="AR46">
+        <v>1</v>
+      </c>
+      <c r="AS46">
+        <v>1.33</v>
+      </c>
+      <c r="AT46">
+        <v>1</v>
+      </c>
+      <c r="AU46">
+        <v>1.98</v>
+      </c>
+      <c r="AV46">
+        <v>1.16</v>
+      </c>
+      <c r="AW46">
+        <v>3.14</v>
+      </c>
+      <c r="AX46">
+        <v>1.73</v>
+      </c>
+      <c r="AY46">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ46">
+        <v>2.43</v>
+      </c>
+      <c r="BA46">
+        <v>1.27</v>
+      </c>
+      <c r="BB46">
+        <v>1.5</v>
+      </c>
+      <c r="BC46">
+        <v>1.93</v>
+      </c>
+      <c r="BD46">
+        <v>2.45</v>
+      </c>
+      <c r="BE46">
+        <v>3.4</v>
+      </c>
+      <c r="BF46">
+        <v>6</v>
+      </c>
+      <c r="BG46">
+        <v>5</v>
+      </c>
+      <c r="BH46">
+        <v>6</v>
+      </c>
+      <c r="BI46">
+        <v>7</v>
+      </c>
+      <c r="BJ46">
+        <v>12</v>
+      </c>
+      <c r="BK46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6792844</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45171.375</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q47">
+        <v>7</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>12</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>2.1</v>
+      </c>
+      <c r="V47">
+        <v>3.3</v>
+      </c>
+      <c r="W47">
+        <v>1.38</v>
+      </c>
+      <c r="X47">
+        <v>2.8</v>
+      </c>
+      <c r="Y47">
+        <v>2.75</v>
+      </c>
+      <c r="Z47">
+        <v>1.4</v>
+      </c>
+      <c r="AA47">
+        <v>6.25</v>
+      </c>
+      <c r="AB47">
+        <v>1.09</v>
+      </c>
+      <c r="AC47">
+        <v>2.08</v>
+      </c>
+      <c r="AD47">
+        <v>3.3</v>
+      </c>
+      <c r="AE47">
+        <v>2.9</v>
+      </c>
+      <c r="AF47">
+        <v>1.04</v>
+      </c>
+      <c r="AG47">
+        <v>11.75</v>
+      </c>
+      <c r="AH47">
+        <v>1.27</v>
+      </c>
+      <c r="AI47">
+        <v>3.43</v>
+      </c>
+      <c r="AJ47">
+        <v>1.86</v>
+      </c>
+      <c r="AK47">
+        <v>1.98</v>
+      </c>
+      <c r="AL47">
+        <v>1.69</v>
+      </c>
+      <c r="AM47">
+        <v>2.11</v>
+      </c>
+      <c r="AN47">
+        <v>1.45</v>
+      </c>
+      <c r="AO47">
+        <v>1.32</v>
+      </c>
+      <c r="AP47">
+        <v>1.47</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>0.5</v>
+      </c>
+      <c r="AS47">
+        <v>0.67</v>
+      </c>
+      <c r="AT47">
+        <v>1.33</v>
+      </c>
+      <c r="AU47">
+        <v>1.19</v>
+      </c>
+      <c r="AV47">
+        <v>1.57</v>
+      </c>
+      <c r="AW47">
+        <v>2.76</v>
+      </c>
+      <c r="AX47">
+        <v>1.62</v>
+      </c>
+      <c r="AY47">
+        <v>8.4</v>
+      </c>
+      <c r="AZ47">
+        <v>2.72</v>
+      </c>
+      <c r="BA47">
+        <v>1.5</v>
+      </c>
+      <c r="BB47">
+        <v>1.85</v>
+      </c>
+      <c r="BC47">
+        <v>2.36</v>
+      </c>
+      <c r="BD47">
+        <v>2.7</v>
+      </c>
+      <c r="BE47">
+        <v>4.5</v>
+      </c>
+      <c r="BF47">
+        <v>4</v>
+      </c>
+      <c r="BG47">
+        <v>8</v>
+      </c>
+      <c r="BH47">
+        <v>2</v>
+      </c>
+      <c r="BI47">
+        <v>6</v>
+      </c>
+      <c r="BJ47">
+        <v>6</v>
+      </c>
+      <c r="BK47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>6792843</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45171.47916666666</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>110</v>
+      </c>
+      <c r="P48" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q48">
+        <v>9</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+      <c r="S48">
+        <v>14</v>
+      </c>
+      <c r="T48">
+        <v>2.44</v>
+      </c>
+      <c r="U48">
+        <v>2.42</v>
+      </c>
+      <c r="V48">
+        <v>4.38</v>
+      </c>
+      <c r="W48">
+        <v>1.3</v>
+      </c>
+      <c r="X48">
+        <v>3.25</v>
+      </c>
+      <c r="Y48">
+        <v>2.57</v>
+      </c>
+      <c r="Z48">
+        <v>1.52</v>
+      </c>
+      <c r="AA48">
+        <v>5.45</v>
+      </c>
+      <c r="AB48">
+        <v>1.12</v>
+      </c>
+      <c r="AC48">
+        <v>1.8</v>
+      </c>
+      <c r="AD48">
+        <v>3.7</v>
+      </c>
+      <c r="AE48">
+        <v>3.8</v>
+      </c>
+      <c r="AF48">
+        <v>1.02</v>
+      </c>
+      <c r="AG48">
+        <v>10</v>
+      </c>
+      <c r="AH48">
+        <v>1.2</v>
+      </c>
+      <c r="AI48">
+        <v>4</v>
+      </c>
+      <c r="AJ48">
+        <v>1.6</v>
+      </c>
+      <c r="AK48">
+        <v>2.2</v>
+      </c>
+      <c r="AL48">
+        <v>1.6</v>
+      </c>
+      <c r="AM48">
+        <v>2.2</v>
+      </c>
+      <c r="AN48">
+        <v>1.2</v>
+      </c>
+      <c r="AO48">
+        <v>1.2</v>
+      </c>
+      <c r="AP48">
+        <v>1.9</v>
+      </c>
+      <c r="AQ48">
+        <v>1.5</v>
+      </c>
+      <c r="AR48">
+        <v>1</v>
+      </c>
+      <c r="AS48">
+        <v>1</v>
+      </c>
+      <c r="AT48">
+        <v>1.67</v>
+      </c>
+      <c r="AU48">
+        <v>1.39</v>
+      </c>
+      <c r="AV48">
+        <v>1.06</v>
+      </c>
+      <c r="AW48">
+        <v>2.45</v>
+      </c>
+      <c r="AX48">
+        <v>1.57</v>
+      </c>
+      <c r="AY48">
+        <v>9.6</v>
+      </c>
+      <c r="AZ48">
+        <v>2.74</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>1.23</v>
+      </c>
+      <c r="BC48">
+        <v>1.55</v>
+      </c>
+      <c r="BD48">
+        <v>1.85</v>
+      </c>
+      <c r="BE48">
+        <v>2.27</v>
+      </c>
+      <c r="BF48">
+        <v>6</v>
+      </c>
+      <c r="BG48">
+        <v>6</v>
+      </c>
+      <c r="BH48">
+        <v>5</v>
+      </c>
+      <c r="BI48">
+        <v>5</v>
+      </c>
+      <c r="BJ48">
+        <v>11</v>
+      </c>
+      <c r="BK48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6792846</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45172.35416666666</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="O49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>8</v>
+      </c>
+      <c r="S49">
+        <v>13</v>
+      </c>
+      <c r="T49">
+        <v>3.4</v>
+      </c>
+      <c r="U49">
+        <v>2.15</v>
+      </c>
+      <c r="V49">
+        <v>2.7</v>
+      </c>
+      <c r="W49">
+        <v>1.34</v>
+      </c>
+      <c r="X49">
+        <v>3</v>
+      </c>
+      <c r="Y49">
+        <v>2.5</v>
+      </c>
+      <c r="Z49">
+        <v>1.46</v>
+      </c>
+      <c r="AA49">
+        <v>6</v>
+      </c>
+      <c r="AB49">
+        <v>1.11</v>
+      </c>
+      <c r="AC49">
+        <v>2.53</v>
+      </c>
+      <c r="AD49">
+        <v>3.3</v>
+      </c>
+      <c r="AE49">
+        <v>2.49</v>
+      </c>
+      <c r="AF49">
+        <v>1.05</v>
+      </c>
+      <c r="AG49">
+        <v>9</v>
+      </c>
+      <c r="AH49">
+        <v>1.25</v>
+      </c>
+      <c r="AI49">
+        <v>3.75</v>
+      </c>
+      <c r="AJ49">
+        <v>1.73</v>
+      </c>
+      <c r="AK49">
+        <v>2.05</v>
+      </c>
+      <c r="AL49">
+        <v>1.62</v>
+      </c>
+      <c r="AM49">
+        <v>2.1</v>
+      </c>
+      <c r="AN49">
+        <v>1.63</v>
+      </c>
+      <c r="AO49">
+        <v>1.29</v>
+      </c>
+      <c r="AP49">
+        <v>1.36</v>
+      </c>
+      <c r="AQ49">
+        <v>2</v>
+      </c>
+      <c r="AR49">
+        <v>0.5</v>
+      </c>
+      <c r="AS49">
+        <v>2.33</v>
+      </c>
+      <c r="AT49">
+        <v>0.33</v>
+      </c>
+      <c r="AU49">
+        <v>1.13</v>
+      </c>
+      <c r="AV49">
+        <v>1.34</v>
+      </c>
+      <c r="AW49">
+        <v>2.47</v>
+      </c>
+      <c r="AX49">
+        <v>2.7</v>
+      </c>
+      <c r="AY49">
+        <v>7</v>
+      </c>
+      <c r="AZ49">
+        <v>1.7</v>
+      </c>
+      <c r="BA49">
+        <v>1.13</v>
+      </c>
+      <c r="BB49">
+        <v>1.29</v>
+      </c>
+      <c r="BC49">
+        <v>1.5</v>
+      </c>
+      <c r="BD49">
+        <v>1.88</v>
+      </c>
+      <c r="BE49">
+        <v>2.43</v>
+      </c>
+      <c r="BF49">
+        <v>12</v>
+      </c>
+      <c r="BG49">
+        <v>6</v>
+      </c>
+      <c r="BH49">
+        <v>6</v>
+      </c>
+      <c r="BI49">
+        <v>4</v>
+      </c>
+      <c r="BJ49">
+        <v>18</v>
+      </c>
+      <c r="BK49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:63">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6792851</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45172.47916666666</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" t="s">
+        <v>78</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q50">
+        <v>-1</v>
+      </c>
+      <c r="R50">
+        <v>-1</v>
+      </c>
+      <c r="S50">
+        <v>-1</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
+        <v>2.2</v>
+      </c>
+      <c r="V50">
+        <v>3.8</v>
+      </c>
+      <c r="W50">
+        <v>1.32</v>
+      </c>
+      <c r="X50">
+        <v>3.1</v>
+      </c>
+      <c r="Y50">
+        <v>2.4</v>
+      </c>
+      <c r="Z50">
+        <v>1.49</v>
+      </c>
+      <c r="AA50">
+        <v>5.75</v>
+      </c>
+      <c r="AB50">
+        <v>1.12</v>
+      </c>
+      <c r="AC50">
+        <v>1.8</v>
+      </c>
+      <c r="AD50">
+        <v>3.6</v>
+      </c>
+      <c r="AE50">
+        <v>3.45</v>
+      </c>
+      <c r="AF50">
+        <v>1.04</v>
+      </c>
+      <c r="AG50">
+        <v>10</v>
+      </c>
+      <c r="AH50">
+        <v>1.22</v>
+      </c>
+      <c r="AI50">
+        <v>4</v>
+      </c>
+      <c r="AJ50">
+        <v>1.62</v>
+      </c>
+      <c r="AK50">
+        <v>2.15</v>
+      </c>
+      <c r="AL50">
+        <v>1.6</v>
+      </c>
+      <c r="AM50">
+        <v>2.2</v>
+      </c>
+      <c r="AN50">
+        <v>1.25</v>
+      </c>
+      <c r="AO50">
+        <v>1.22</v>
+      </c>
+      <c r="AP50">
+        <v>1.8</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>1</v>
+      </c>
+      <c r="AS50">
+        <v>1.67</v>
+      </c>
+      <c r="AT50">
+        <v>0.67</v>
+      </c>
+      <c r="AU50">
+        <v>1.6</v>
+      </c>
+      <c r="AV50">
+        <v>1.38</v>
+      </c>
+      <c r="AW50">
+        <v>2.98</v>
+      </c>
+      <c r="AX50">
+        <v>1.6</v>
+      </c>
+      <c r="AY50">
+        <v>7</v>
+      </c>
+      <c r="AZ50">
+        <v>3</v>
+      </c>
+      <c r="BA50">
+        <v>1.27</v>
+      </c>
+      <c r="BB50">
+        <v>1.5</v>
+      </c>
+      <c r="BC50">
+        <v>1.9</v>
+      </c>
+      <c r="BD50">
+        <v>2.45</v>
+      </c>
+      <c r="BE50">
+        <v>3.4</v>
+      </c>
+      <c r="BF50">
+        <v>-1</v>
+      </c>
+      <c r="BG50">
+        <v>-1</v>
+      </c>
+      <c r="BH50">
+        <v>-1</v>
+      </c>
+      <c r="BI50">
+        <v>-1</v>
+      </c>
+      <c r="BJ50">
+        <v>-1</v>
+      </c>
+      <c r="BK50">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="152">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>['30', '76']</t>
+  </si>
+  <si>
+    <t>['58']</t>
   </si>
   <si>
     <t>['69']</t>
@@ -828,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK50"/>
+  <dimension ref="A1:BK51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1075,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1350,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -2218,7 +2221,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2308,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2409,7 +2412,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2600,7 +2603,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3173,7 +3176,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3555,7 +3558,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3746,7 +3749,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4128,7 +4131,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4510,7 +4513,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4701,7 +4704,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -4892,7 +4895,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5083,7 +5086,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5364,7 +5367,7 @@
         <v>2.33</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU24">
         <v>1.28</v>
@@ -5465,7 +5468,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5656,7 +5659,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5847,7 +5850,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6125,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT28">
         <v>1.33</v>
@@ -6611,7 +6614,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6802,7 +6805,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -6993,7 +6996,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7184,7 +7187,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7375,7 +7378,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -7566,7 +7569,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7757,7 +7760,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8139,7 +8142,7 @@
         <v>89</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8330,7 +8333,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -8903,7 +8906,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9667,7 +9670,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -9858,7 +9861,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10049,7 +10052,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10240,16 +10243,16 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R50">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S50">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="T50">
         <v>2.5</v>
@@ -10366,22 +10369,213 @@
         <v>3.4</v>
       </c>
       <c r="BF50">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG50">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH50">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI50">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ50">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK50">
-        <v>-1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>6792845</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45172.60416666666</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>123</v>
+      </c>
+      <c r="P51" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q51">
+        <v>6</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>2.8</v>
+      </c>
+      <c r="U51">
+        <v>2.2</v>
+      </c>
+      <c r="V51">
+        <v>3.2</v>
+      </c>
+      <c r="W51">
+        <v>1.32</v>
+      </c>
+      <c r="X51">
+        <v>3.1</v>
+      </c>
+      <c r="Y51">
+        <v>2.45</v>
+      </c>
+      <c r="Z51">
+        <v>1.47</v>
+      </c>
+      <c r="AA51">
+        <v>6</v>
+      </c>
+      <c r="AB51">
+        <v>1.11</v>
+      </c>
+      <c r="AC51">
+        <v>2.2</v>
+      </c>
+      <c r="AD51">
+        <v>3.45</v>
+      </c>
+      <c r="AE51">
+        <v>2.65</v>
+      </c>
+      <c r="AF51">
+        <v>1.04</v>
+      </c>
+      <c r="AG51">
+        <v>10</v>
+      </c>
+      <c r="AH51">
+        <v>1.22</v>
+      </c>
+      <c r="AI51">
+        <v>4</v>
+      </c>
+      <c r="AJ51">
+        <v>1.65</v>
+      </c>
+      <c r="AK51">
+        <v>2.1</v>
+      </c>
+      <c r="AL51">
+        <v>1.58</v>
+      </c>
+      <c r="AM51">
+        <v>2.2</v>
+      </c>
+      <c r="AN51">
+        <v>1.4</v>
+      </c>
+      <c r="AO51">
+        <v>1.29</v>
+      </c>
+      <c r="AP51">
+        <v>1.65</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>1.67</v>
+      </c>
+      <c r="AT51">
+        <v>0.33</v>
+      </c>
+      <c r="AU51">
+        <v>1.64</v>
+      </c>
+      <c r="AV51">
+        <v>1.21</v>
+      </c>
+      <c r="AW51">
+        <v>2.85</v>
+      </c>
+      <c r="AX51">
+        <v>1.91</v>
+      </c>
+      <c r="AY51">
+        <v>6.5</v>
+      </c>
+      <c r="AZ51">
+        <v>2.38</v>
+      </c>
+      <c r="BA51">
+        <v>1.27</v>
+      </c>
+      <c r="BB51">
+        <v>1.5</v>
+      </c>
+      <c r="BC51">
+        <v>1.88</v>
+      </c>
+      <c r="BD51">
+        <v>2.45</v>
+      </c>
+      <c r="BE51">
+        <v>3.4</v>
+      </c>
+      <c r="BF51">
+        <v>7</v>
+      </c>
+      <c r="BG51">
+        <v>2</v>
+      </c>
+      <c r="BH51">
+        <v>6</v>
+      </c>
+      <c r="BI51">
+        <v>5</v>
+      </c>
+      <c r="BJ51">
+        <v>13</v>
+      </c>
+      <c r="BK51">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK58"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -6993,7 +6993,7 @@
         <v>0.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU32" t="n">
         <v>1.69</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT40" t="n">
         <v>0</v>
@@ -11089,22 +11089,22 @@
         <v>2.45</v>
       </c>
       <c r="BF52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ52" t="n">
         <v>6</v>
       </c>
       <c r="BK52" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -12307,22 +12307,631 @@
         <v>2.6</v>
       </c>
       <c r="BF58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6792860</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45186.35416666666</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Erzgebirge Aue</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Hallescher FC</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['62', '79', '90+6']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>7</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>11</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X59" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF59" t="n">
         <v>8</v>
       </c>
-      <c r="BG58" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH58" t="n">
+      <c r="BG59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6792858</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45186.47916666666</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['36', '90+13']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>4</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY60" t="n">
         <v>7</v>
       </c>
-      <c r="BI58" t="n">
+      <c r="AZ60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6792862</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45186.60416666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Unterhaching</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Saarbrucken</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
         <v>8</v>
       </c>
-      <c r="BJ58" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK58" t="n">
+      <c r="T61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG61" t="n">
         <v>11</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK61"/>
+  <dimension ref="A1:BK68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>0.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT13" t="n">
         <v>1.33</v>
@@ -3542,7 +3542,7 @@
         <v>0.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>1.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>1.67</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.02</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU23" t="n">
         <v>1.22</v>
@@ -5369,7 +5369,7 @@
         <v>2.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.28</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>1.42</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>1.33</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU30" t="n">
         <v>2.19</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>0.83</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU42" t="n">
         <v>2.08</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>2.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU45" t="n">
         <v>1.38</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.13</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.6</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.64</v>
@@ -12271,7 +12271,7 @@
         <v>2.33</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.68</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -12932,6 +12932,1427 @@
       </c>
       <c r="BK61" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6792867</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45191.58333333334</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Unterhaching</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['28', '89']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6</v>
+      </c>
+      <c r="S62" t="n">
+        <v>9</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X62" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6792869</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>VfB Lübeck</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>6</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>11</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6792865</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Viktoria Köln</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>MSV Duisburg</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['52', '87']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>7</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X64" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6792866</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Verl</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund II</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="n">
+        <v>5</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['23', '63']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['15', '74', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>7</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6792868</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="F66" t="n">
+        <v>7</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Saarbrucken</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>7</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>8</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V66" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6792870</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['18', '89']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>7</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>7</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6792863</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45192.47916666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Hallescher FC</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>1860 München</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['23', '66']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>6</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>11</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Germany 3. Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK68"/>
+  <dimension ref="A1:BK71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.75</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT10" t="n">
         <v>0.5</v>
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5572,7 +5572,7 @@
         <v>1.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU25" t="n">
         <v>1.8</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.09</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -7196,7 +7196,7 @@
         <v>0.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>0.9399999999999999</v>
@@ -9429,7 +9429,7 @@
         <v>3</v>
       </c>
       <c r="AT44" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU44" t="n">
         <v>1.68</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT45" t="n">
         <v>1.25</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.19</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU48" t="n">
         <v>1.39</v>
@@ -13119,7 +13119,7 @@
         <v>2.75</v>
       </c>
       <c r="BF62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG62" t="n">
         <v>6</v>
@@ -13128,13 +13128,13 @@
         <v>3</v>
       </c>
       <c r="BI62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -14337,22 +14337,631 @@
         <v>2.6</v>
       </c>
       <c r="BF68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH68" t="n">
         <v>8</v>
       </c>
       <c r="BI68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6792871</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45193.35416666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Rot-Weiss Essen</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['19', '80']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>6</v>
+      </c>
+      <c r="R69" t="n">
+        <v>6</v>
+      </c>
+      <c r="S69" t="n">
+        <v>12</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH69" t="n">
         <v>4</v>
       </c>
-      <c r="BJ68" t="n">
+      <c r="BI69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6792872</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45193.47916666666</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Freiburg II</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Ingolstadt</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['17', '61', '64', '67']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>7</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>10</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK70" t="n">
         <v>12</v>
       </c>
-      <c r="BK68" t="n">
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6792864</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Germany 3. Liga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45193.60416666666</v>
+      </c>
+      <c r="F71" t="n">
         <v>7</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Erzgebirge Aue</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['8', '84']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>7</v>
+      </c>
+      <c r="R71" t="n">
+        <v>6</v>
+      </c>
+      <c r="S71" t="n">
+        <v>13</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V71" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
